--- a/predictor/modelA.xlsx
+++ b/predictor/modelA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaos\Desktop\docs\github\soccer_predictor\predictor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D600F7-3BEC-4041-9B2D-6A0FB3FDE438}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB5D0CC5-143B-4CB7-8DFA-774EDDF68EB1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -1378,29 +1378,29 @@
       </c>
       <c r="Y1" s="4">
         <f ca="1">(SUM(OFFSET(T2,0,0,_xlfn.FLOOR.MATH(COUNT(P2:P1048576)),3))-SUM(OFFSET(Q2,0,0,_xlfn.FLOOR.MATH(COUNT(P2:P1048576)),3))  )/(SUM(OFFSET(Q2,0,0,_xlfn.FLOOR.MATH(COUNT(P2:P1048576)),3))+0.000000000000000001)</f>
-        <v>-3.7357094213163057E-4</v>
+        <v>4.9437680613127984E-2</v>
       </c>
       <c r="Z1">
         <f ca="1">COUNTIF(OFFSET(Q2,0,0,_xlfn.FLOOR.MATH(COUNT(P2:P1048576)),3),"&gt;0")</f>
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AB1">
-        <v>1.1804703661080369</v>
+        <v>1.228578470798835</v>
       </c>
       <c r="AC1">
-        <v>1.0312616731831437</v>
+        <v>1.046352547281717</v>
       </c>
       <c r="AD1">
         <f>MAX(Q2:S1048576)</f>
-        <v>0.1513195155124632</v>
+        <v>0.15465936497966093</v>
       </c>
       <c r="AE1">
         <f>SUMIF(Q2:S1048576,"&gt;0")/COUNTIF(Q2:S1048576,"&gt;0")</f>
-        <v>5.4271781202305337E-2</v>
+        <v>5.7488885561543031E-2</v>
       </c>
       <c r="AF1">
         <f>AVERAGE(Q2:S1048576)</f>
-        <v>2.9535663239349847E-3</v>
+        <v>2.7375659791210967E-3</v>
       </c>
       <c r="AH1" t="s">
         <v>22</v>
@@ -1508,7 +1508,7 @@
       </c>
       <c r="AI2" s="3">
         <f ca="1">IFERROR(Y1-IF(MAX(AB4:AF4)&gt;AI1,1000,0),-1000)</f>
-        <v>-3.7357094213163057E-4</v>
+        <v>4.9437680613127984E-2</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.35">
@@ -1562,7 +1562,7 @@
       </c>
       <c r="Q3">
         <f t="shared" si="0"/>
-        <v>6.6640106988765047E-2</v>
+        <v>5.9974807837739896E-2</v>
       </c>
       <c r="R3">
         <f t="shared" si="1"/>
@@ -1574,7 +1574,7 @@
       </c>
       <c r="T3">
         <f t="shared" si="3"/>
-        <v>0.12528340113887829</v>
+        <v>0.11275263873495101</v>
       </c>
       <c r="U3">
         <f t="shared" si="4"/>
@@ -1594,10 +1594,10 @@
         <v>0.13718309875702817</v>
       </c>
       <c r="AE3">
-        <v>5.0558504252532083E-2</v>
+        <v>5.2236249327466629E-2</v>
       </c>
       <c r="AF3">
-        <v>2.6368380902681132E-3</v>
+        <v>2.7243395340855615E-3</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.35">
@@ -1675,23 +1675,23 @@
       </c>
       <c r="AB4" s="2">
         <f>ABS(AB1-AB3)/AB3</f>
-        <v>4.7816763809725597E-2</v>
+        <v>9.0518791761792047E-2</v>
       </c>
       <c r="AC4" s="2">
         <f>ABS(AC1-AC3)/AC3</f>
-        <v>3.1302925300155701E-2</v>
+        <v>4.6394403057839359E-2</v>
       </c>
       <c r="AD4" s="2">
         <f>ABS(AD1-AD3)/AD3</f>
-        <v>0.10304780168636332</v>
+        <v>0.12739372693122972</v>
       </c>
       <c r="AE4" s="2">
         <f>ABS(AE1-AE3)/AE3</f>
-        <v>7.3445150418730704E-2</v>
+        <v>0.10055538637829582</v>
       </c>
       <c r="AF4" s="2">
         <f>ABS(AF1-AF3)/AF3</f>
-        <v>0.12011667869780607</v>
+        <v>4.8549179975743073E-3</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.35">
@@ -2406,7 +2406,7 @@
       </c>
       <c r="R14">
         <f t="shared" si="1"/>
-        <v>7.6930717637523044E-2</v>
+        <v>6.470780409754387E-2</v>
       </c>
       <c r="S14">
         <f t="shared" si="2"/>
@@ -2850,7 +2850,7 @@
       </c>
       <c r="R20">
         <f t="shared" si="1"/>
-        <v>0.12912683858699459</v>
+        <v>0.11906035630467898</v>
       </c>
       <c r="S20">
         <f t="shared" si="2"/>
@@ -2998,7 +2998,7 @@
       </c>
       <c r="R22">
         <f t="shared" si="1"/>
-        <v>1.046145642314722E-2</v>
+        <v>0</v>
       </c>
       <c r="S22">
         <f t="shared" si="2"/>
@@ -3438,7 +3438,7 @@
       </c>
       <c r="Q28">
         <f t="shared" si="0"/>
-        <v>2.2691911134288811E-2</v>
+        <v>1.1786569570884031E-2</v>
       </c>
       <c r="R28">
         <f t="shared" si="1"/>
@@ -3450,7 +3450,7 @@
       </c>
       <c r="T28">
         <f t="shared" si="3"/>
-        <v>4.8787608938720944E-2</v>
+        <v>2.5341124577400665E-2</v>
       </c>
       <c r="U28">
         <f t="shared" si="4"/>
@@ -3660,7 +3660,7 @@
       </c>
       <c r="Q31">
         <f t="shared" si="0"/>
-        <v>0.11374405605527627</v>
+        <v>0.15465936497966093</v>
       </c>
       <c r="R31">
         <f t="shared" si="1"/>
@@ -3672,7 +3672,7 @@
       </c>
       <c r="T31">
         <f t="shared" si="3"/>
-        <v>0.14218007006909533</v>
+        <v>0.19332420622457616</v>
       </c>
       <c r="U31">
         <f t="shared" si="4"/>
@@ -3738,7 +3738,7 @@
       </c>
       <c r="R32">
         <f t="shared" si="1"/>
-        <v>1.5888594850416826E-2</v>
+        <v>2.8234653738798965E-3</v>
       </c>
       <c r="S32">
         <f t="shared" si="2"/>
@@ -4178,7 +4178,7 @@
       </c>
       <c r="Q38">
         <f t="shared" si="6"/>
-        <v>5.0028196166418404E-4</v>
+        <v>0</v>
       </c>
       <c r="R38">
         <f t="shared" si="7"/>
@@ -4552,7 +4552,7 @@
       </c>
       <c r="R43">
         <f t="shared" si="7"/>
-        <v>0.10177275001545327</v>
+        <v>0.1029411385390594</v>
       </c>
       <c r="S43">
         <f t="shared" si="8"/>
@@ -4564,7 +4564,7 @@
       </c>
       <c r="U43">
         <f t="shared" si="10"/>
-        <v>0.16487185502503432</v>
+        <v>0.16676464443327624</v>
       </c>
       <c r="V43">
         <f t="shared" si="11"/>
@@ -4774,7 +4774,7 @@
       </c>
       <c r="R46">
         <f t="shared" si="7"/>
-        <v>8.3298173576089596E-3</v>
+        <v>0</v>
       </c>
       <c r="S46">
         <f t="shared" si="8"/>
@@ -4844,7 +4844,7 @@
       </c>
       <c r="Q47">
         <f t="shared" si="6"/>
-        <v>0.11286389495892712</v>
+        <v>0.10539547007350547</v>
       </c>
       <c r="R47">
         <f t="shared" si="7"/>
@@ -4856,7 +4856,7 @@
       </c>
       <c r="T47">
         <f t="shared" si="9"/>
-        <v>0.23362826256497912</v>
+        <v>0.21816862305215631</v>
       </c>
       <c r="U47">
         <f t="shared" si="10"/>
@@ -5588,7 +5588,7 @@
       </c>
       <c r="R57">
         <f t="shared" si="7"/>
-        <v>1.2810209693911445E-3</v>
+        <v>0</v>
       </c>
       <c r="S57">
         <f t="shared" si="8"/>
@@ -6662,7 +6662,7 @@
       </c>
       <c r="R72">
         <f t="shared" si="13"/>
-        <v>5.4259642893452253E-2</v>
+        <v>4.4488400739736145E-2</v>
       </c>
       <c r="S72">
         <f t="shared" si="14"/>
@@ -6736,7 +6736,7 @@
       </c>
       <c r="R73">
         <f t="shared" si="13"/>
-        <v>1.6997401671577927E-3</v>
+        <v>0</v>
       </c>
       <c r="S73">
         <f t="shared" si="14"/>
@@ -6748,7 +6748,7 @@
       </c>
       <c r="U73">
         <f t="shared" si="16"/>
-        <v>3.0935271042271829E-3</v>
+        <v>0</v>
       </c>
       <c r="V73">
         <f t="shared" si="17"/>
@@ -7106,7 +7106,7 @@
       </c>
       <c r="R78">
         <f t="shared" si="13"/>
-        <v>4.9593642478849509E-2</v>
+        <v>3.7433544311413713E-2</v>
       </c>
       <c r="S78">
         <f t="shared" si="14"/>
@@ -7180,7 +7180,7 @@
       </c>
       <c r="R79">
         <f t="shared" si="13"/>
-        <v>1.4112702443082048E-3</v>
+        <v>0</v>
       </c>
       <c r="S79">
         <f t="shared" si="14"/>
@@ -7192,7 +7192,7 @@
       </c>
       <c r="U79">
         <f t="shared" si="16"/>
-        <v>2.568511844640933E-3</v>
+        <v>0</v>
       </c>
       <c r="V79">
         <f t="shared" si="17"/>
@@ -7250,7 +7250,7 @@
       </c>
       <c r="Q80">
         <f t="shared" si="12"/>
-        <v>8.4251239006499057E-2</v>
+        <v>7.3176972539829521E-2</v>
       </c>
       <c r="R80">
         <f t="shared" si="13"/>
@@ -7550,7 +7550,7 @@
       </c>
       <c r="R84">
         <f t="shared" si="13"/>
-        <v>0.13576922616961207</v>
+        <v>0.12962507795784484</v>
       </c>
       <c r="S84">
         <f t="shared" si="14"/>
@@ -9400,7 +9400,7 @@
       </c>
       <c r="R109">
         <f t="shared" si="19"/>
-        <v>5.7018659938221306E-2</v>
+        <v>5.6356430202783359E-2</v>
       </c>
       <c r="S109">
         <f t="shared" si="20"/>
@@ -9412,7 +9412,7 @@
       </c>
       <c r="U109">
         <f t="shared" si="22"/>
-        <v>9.2370229099918516E-2</v>
+        <v>9.1297416928509054E-2</v>
       </c>
       <c r="V109">
         <f t="shared" si="23"/>
@@ -10510,7 +10510,7 @@
       </c>
       <c r="R124">
         <f t="shared" si="19"/>
-        <v>0.1513195155124632</v>
+        <v>0.14740405332039574</v>
       </c>
       <c r="S124">
         <f t="shared" si="20"/>
@@ -10522,7 +10522,7 @@
       </c>
       <c r="U124">
         <f t="shared" si="22"/>
-        <v>0.28750707947368004</v>
+        <v>0.28006770130875192</v>
       </c>
       <c r="V124">
         <f t="shared" si="23"/>
@@ -10728,7 +10728,7 @@
       </c>
       <c r="Q127">
         <f t="shared" si="18"/>
-        <v>1.8697424683302377E-2</v>
+        <v>5.6711637832442818E-3</v>
       </c>
       <c r="R127">
         <f t="shared" si="19"/>
@@ -10880,7 +10880,7 @@
       </c>
       <c r="R129">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>3.9842592553794853E-3</v>
       </c>
       <c r="S129">
         <f t="shared" si="20"/>
@@ -10892,7 +10892,7 @@
       </c>
       <c r="U129">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>5.5779629575312788E-3</v>
       </c>
       <c r="V129">
         <f t="shared" si="23"/>
@@ -11176,7 +11176,7 @@
       </c>
       <c r="R133">
         <f t="shared" si="25"/>
-        <v>4.1754760183532191E-2</v>
+        <v>3.0391610211847164E-2</v>
       </c>
       <c r="S133">
         <f t="shared" si="26"/>
@@ -11188,7 +11188,7 @@
       </c>
       <c r="U133">
         <f t="shared" si="28"/>
-        <v>9.7288591227630006E-2</v>
+        <v>7.0812451793603889E-2</v>
       </c>
       <c r="V133">
         <f t="shared" si="29"/>
@@ -11320,7 +11320,7 @@
       </c>
       <c r="Q135">
         <f t="shared" si="24"/>
-        <v>4.6352726513059106E-2</v>
+        <v>3.5500983800492658E-2</v>
       </c>
       <c r="R135">
         <f t="shared" si="25"/>
@@ -11332,7 +11332,7 @@
       </c>
       <c r="T135">
         <f t="shared" si="27"/>
-        <v>0.10429363465438299</v>
+        <v>7.9877213551108481E-2</v>
       </c>
       <c r="U135">
         <f t="shared" si="28"/>
@@ -11740,13 +11740,13 @@
         <v>75</v>
       </c>
       <c r="E143">
-        <v>0.66502240081407427</v>
+        <v>0.67228044420078803</v>
       </c>
       <c r="F143">
-        <v>0.12545344239424211</v>
+        <v>0.12187647341594091</v>
       </c>
       <c r="G143">
-        <v>0.2095241567916836</v>
+        <v>0.20584308238327101</v>
       </c>
       <c r="H143">
         <v>1.55</v>
@@ -11768,7 +11768,7 @@
       </c>
       <c r="Q143">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>1.1085816062894494E-2</v>
       </c>
       <c r="R143">
         <f t="shared" si="25"/>
@@ -11793,28 +11793,28 @@
         <v>54</v>
       </c>
       <c r="E144">
-        <v>0.29831293716975471</v>
+        <v>0.28467204296873611</v>
       </c>
       <c r="F144">
-        <v>0.40545518531797842</v>
+        <v>0.42409580339393632</v>
       </c>
       <c r="G144">
-        <v>0.29623187751226687</v>
+        <v>0.29123215363732757</v>
       </c>
       <c r="H144">
-        <v>2.6</v>
+        <v>2.77</v>
       </c>
       <c r="I144">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J144">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="K144" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="L144" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="M144" t="s">
         <v>27</v>
@@ -11825,7 +11825,7 @@
       </c>
       <c r="R144">
         <f t="shared" si="25"/>
-        <v>1.6345412541435289E-4</v>
+        <v>7.7079009627610273E-3</v>
       </c>
       <c r="S144">
         <f t="shared" si="26"/>
@@ -11846,28 +11846,28 @@
         <v>165</v>
       </c>
       <c r="E145">
-        <v>0.24549260579897461</v>
+        <v>0.24255048151571551</v>
       </c>
       <c r="F145">
-        <v>0.48685445843109848</v>
+        <v>0.49216644675628002</v>
       </c>
       <c r="G145">
-        <v>0.26765293576992688</v>
+        <v>0.26528307172800453</v>
       </c>
       <c r="H145">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="I145">
-        <v>2.2000000000000002</v>
+        <v>2.15</v>
       </c>
       <c r="J145">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K145" t="s">
         <v>39</v>
       </c>
       <c r="L145" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="M145" t="s">
         <v>39</v>
@@ -11899,19 +11899,19 @@
         <v>170</v>
       </c>
       <c r="E146">
-        <v>0.35216724119021459</v>
+        <v>0.36861320245004892</v>
       </c>
       <c r="F146">
-        <v>0.33735069928220429</v>
+        <v>0.32128297330080963</v>
       </c>
       <c r="G146">
-        <v>0.31048205952758112</v>
+        <v>0.3101038242491414</v>
       </c>
       <c r="H146">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="I146">
-        <v>3.45</v>
+        <v>3.85</v>
       </c>
       <c r="J146">
         <v>3.05</v>
@@ -11931,7 +11931,7 @@
       </c>
       <c r="R146">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>3.0914068668289052E-3</v>
       </c>
       <c r="S146">
         <f t="shared" si="26"/>
@@ -11952,22 +11952,22 @@
         <v>62</v>
       </c>
       <c r="E147">
-        <v>0.67969214734674033</v>
+        <v>0.66676338116499845</v>
       </c>
       <c r="F147">
-        <v>0.1179214502414718</v>
+        <v>0.1239264119168349</v>
       </c>
       <c r="G147">
-        <v>0.2023864024117879</v>
+        <v>0.20931020691816671</v>
       </c>
       <c r="H147">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="I147">
-        <v>8</v>
+        <v>7.2</v>
       </c>
       <c r="J147">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="K147" t="s">
         <v>27</v>
@@ -11976,7 +11976,7 @@
         <v>27</v>
       </c>
       <c r="M147" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="Q147">
         <f t="shared" si="24"/>
@@ -12005,25 +12005,25 @@
         <v>175</v>
       </c>
       <c r="E148">
-        <v>0.51360200449889504</v>
+        <v>0.5291929556698034</v>
       </c>
       <c r="F148">
-        <v>0.2064489329753702</v>
+        <v>0.19679276962237141</v>
       </c>
       <c r="G148">
-        <v>0.27994906252573482</v>
+        <v>0.27401427470782519</v>
       </c>
       <c r="H148">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="I148">
-        <v>4.75</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="J148">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K148" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="L148" t="s">
         <v>39</v>

--- a/predictor/modelA.xlsx
+++ b/predictor/modelA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaos\Desktop\docs\github\soccer_predictor\predictor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E35281FA-725B-4550-9D13-0B95F77E1CD0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76CB2DA3-FA2F-48DF-8CAC-3D15A090B1F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -1950,33 +1950,33 @@
       </c>
       <c r="Y1" s="4">
         <f>(SUM(T2:V1048576)-SUM(AL2:AN1048576)  )/(SUM(AL2:AN1048576)+0.000000000000000001)</f>
-        <v>1.1390396871221883E-2</v>
+        <v>3.3696087823902423E-4</v>
       </c>
       <c r="Z1">
         <f>COUNTIF(AL2:AN1048576,"&gt;0")</f>
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AA1" s="6">
         <f>_xlfn.STDEV.P(AO2:AQ1048576)</f>
-        <v>7.4016861250669586E-2</v>
+        <v>7.4574948202608571E-2</v>
       </c>
       <c r="AB1">
-        <v>1.1866052479973452</v>
+        <v>1.183034839820615</v>
       </c>
       <c r="AC1">
-        <v>1.0337678127791443</v>
+        <v>1.0288928476329307</v>
       </c>
       <c r="AD1">
         <f>MAX(Q2:S1048576)</f>
-        <v>0.15706482308151015</v>
+        <v>0.15533466485232494</v>
       </c>
       <c r="AE1">
         <f>SUMIF(Q2:S1048576,"&gt;0")/COUNTIF(Q2:S1048576,"&gt;0")</f>
-        <v>4.8203390738631696E-2</v>
+        <v>4.7380652019369168E-2</v>
       </c>
       <c r="AF1">
         <f>AVERAGE(Q2:S1048576)</f>
-        <v>1.5927262246000753E-3</v>
+        <v>1.4274054544222005E-3</v>
       </c>
       <c r="AH1" t="s">
         <v>22</v>
@@ -2108,7 +2108,7 @@
       </c>
       <c r="AI2" s="3">
         <f>IFERROR(IF(Y1&lt;0,Y1,Y1/SQRT(AA1))  -IF(OR(MAX(AB4:AF4)&gt;AI1,AVERAGE(AB4:AF4)&gt;AI1/2),10000,0),-10000)</f>
-        <v>4.1867162111901564E-2</v>
+        <v>1.2339086286586554E-3</v>
       </c>
       <c r="AL2">
         <f t="shared" ref="AL2:AL65" si="6">Q2*COUNT(N2)</f>
@@ -2186,7 +2186,7 @@
       </c>
       <c r="Q3">
         <f t="shared" si="0"/>
-        <v>6.6514533869999837E-2</v>
+        <v>6.1875854254245521E-2</v>
       </c>
       <c r="R3">
         <f t="shared" si="1"/>
@@ -2198,7 +2198,7 @@
       </c>
       <c r="T3">
         <f t="shared" si="3"/>
-        <v>0.12504732367559968</v>
+        <v>0.11632660599798157</v>
       </c>
       <c r="U3">
         <f t="shared" si="4"/>
@@ -2218,14 +2218,14 @@
         <v>0.1614130588599732</v>
       </c>
       <c r="AE3">
-        <v>4.4200898852568046E-2</v>
+        <v>4.3117747866734633E-2</v>
       </c>
       <c r="AF3">
-        <v>1.5266757827367254E-3</v>
+        <v>1.3827849170089824E-3</v>
       </c>
       <c r="AL3">
         <f t="shared" si="6"/>
-        <v>6.6514533869999837E-2</v>
+        <v>6.1875854254245521E-2</v>
       </c>
       <c r="AM3">
         <f t="shared" si="7"/>
@@ -2237,7 +2237,7 @@
       </c>
       <c r="AO3">
         <f t="shared" si="9"/>
-        <v>5.8532789805599839E-2</v>
+        <v>5.4450751743736051E-2</v>
       </c>
       <c r="AP3" t="str">
         <f t="shared" si="10"/>
@@ -2323,23 +2323,23 @@
       </c>
       <c r="AB4" s="2">
         <f>ABS(AB1-AB3)/AB3</f>
-        <v>5.326224746790803E-2</v>
+        <v>5.0093058601646479E-2</v>
       </c>
       <c r="AC4" s="2">
         <f>ABS(AC1-AC3)/AC3</f>
-        <v>3.3809165145750185E-2</v>
+        <v>2.8934004993130417E-2</v>
       </c>
       <c r="AD4" s="2">
         <f>ABS(AD1-AD3)/AD3</f>
-        <v>2.6938562525075312E-2</v>
+        <v>3.7657386896566412E-2</v>
       </c>
       <c r="AE4" s="2">
         <f>ABS(AE1-AE3)/AE3</f>
-        <v>9.0552273595474797E-2</v>
+        <v>9.8866577303852357E-2</v>
       </c>
       <c r="AF4" s="2">
         <f>ABS(AF1-AF3)/AF3</f>
-        <v>4.3264223229471585E-2</v>
+        <v>3.2268602921800768E-2</v>
       </c>
       <c r="AI4" s="5"/>
       <c r="AL4">
@@ -3296,7 +3296,7 @@
       </c>
       <c r="R14">
         <f t="shared" si="1"/>
-        <v>7.5605863618637442E-2</v>
+        <v>7.4726615628167209E-2</v>
       </c>
       <c r="S14">
         <f t="shared" si="2"/>
@@ -3320,7 +3320,7 @@
       </c>
       <c r="AM14">
         <f t="shared" si="7"/>
-        <v>7.5605863618637442E-2</v>
+        <v>7.4726615628167209E-2</v>
       </c>
       <c r="AN14">
         <f t="shared" si="8"/>
@@ -3332,7 +3332,7 @@
       </c>
       <c r="AP14">
         <f t="shared" si="10"/>
-        <v>-7.5605863618637442E-2</v>
+        <v>-7.4726615628167209E-2</v>
       </c>
       <c r="AQ14" t="str">
         <f t="shared" si="11"/>
@@ -3884,7 +3884,7 @@
       </c>
       <c r="R20">
         <f t="shared" si="1"/>
-        <v>0.12829053643470373</v>
+        <v>0.12582471922495386</v>
       </c>
       <c r="S20">
         <f t="shared" si="2"/>
@@ -3908,7 +3908,7 @@
       </c>
       <c r="AM20">
         <f t="shared" si="7"/>
-        <v>0.12829053643470373</v>
+        <v>0.12582471922495386</v>
       </c>
       <c r="AN20">
         <f t="shared" si="8"/>
@@ -3920,7 +3920,7 @@
       </c>
       <c r="AP20">
         <f t="shared" si="10"/>
-        <v>-0.12829053643470373</v>
+        <v>-0.12582471922495386</v>
       </c>
       <c r="AQ20" t="str">
         <f t="shared" si="11"/>
@@ -4080,7 +4080,7 @@
       </c>
       <c r="R22">
         <f t="shared" si="1"/>
-        <v>9.1922136157880918E-3</v>
+        <v>7.4436676347207076E-3</v>
       </c>
       <c r="S22">
         <f t="shared" si="2"/>
@@ -4104,7 +4104,7 @@
       </c>
       <c r="AM22">
         <f t="shared" si="7"/>
-        <v>9.1922136157880918E-3</v>
+        <v>7.4436676347207076E-3</v>
       </c>
       <c r="AN22">
         <f t="shared" si="8"/>
@@ -4116,7 +4116,7 @@
       </c>
       <c r="AP22">
         <f t="shared" si="10"/>
-        <v>-9.1922136157880918E-3</v>
+        <v>-7.4436676347207076E-3</v>
       </c>
       <c r="AQ22" t="str">
         <f t="shared" si="11"/>
@@ -4664,7 +4664,7 @@
       </c>
       <c r="Q28">
         <f t="shared" si="0"/>
-        <v>2.183210968871957E-2</v>
+        <v>1.8838985847550727E-2</v>
       </c>
       <c r="R28">
         <f t="shared" si="1"/>
@@ -4676,7 +4676,7 @@
       </c>
       <c r="T28">
         <f t="shared" si="3"/>
-        <v>4.6939035830747072E-2</v>
+        <v>4.0503819572234062E-2</v>
       </c>
       <c r="U28">
         <f t="shared" si="4"/>
@@ -4688,7 +4688,7 @@
       </c>
       <c r="AL28">
         <f t="shared" si="6"/>
-        <v>2.183210968871957E-2</v>
+        <v>1.8838985847550727E-2</v>
       </c>
       <c r="AM28">
         <f t="shared" si="7"/>
@@ -4700,7 +4700,7 @@
       </c>
       <c r="AO28">
         <f t="shared" si="9"/>
-        <v>2.5106926142027503E-2</v>
+        <v>2.1664833724683336E-2</v>
       </c>
       <c r="AP28" t="str">
         <f t="shared" si="10"/>
@@ -4958,7 +4958,7 @@
       </c>
       <c r="Q31">
         <f t="shared" si="0"/>
-        <v>0.12142828878281464</v>
+        <v>0.10082901290222512</v>
       </c>
       <c r="R31">
         <f t="shared" si="1"/>
@@ -4970,7 +4970,7 @@
       </c>
       <c r="T31">
         <f t="shared" si="3"/>
-        <v>0.1517853609785183</v>
+        <v>0.1260362661277814</v>
       </c>
       <c r="U31">
         <f t="shared" si="4"/>
@@ -4982,7 +4982,7 @@
       </c>
       <c r="AL31">
         <f t="shared" si="6"/>
-        <v>0.12142828878281464</v>
+        <v>0.10082901290222512</v>
       </c>
       <c r="AM31">
         <f t="shared" si="7"/>
@@ -4994,7 +4994,7 @@
       </c>
       <c r="AO31">
         <f t="shared" si="9"/>
-        <v>3.035707219570366E-2</v>
+        <v>2.5207253225556281E-2</v>
       </c>
       <c r="AP31" t="str">
         <f t="shared" si="10"/>
@@ -5060,7 +5060,7 @@
       </c>
       <c r="R32">
         <f t="shared" si="1"/>
-        <v>1.4489289466002531E-2</v>
+        <v>1.3438231270328171E-2</v>
       </c>
       <c r="S32">
         <f t="shared" si="2"/>
@@ -5084,7 +5084,7 @@
       </c>
       <c r="AM32">
         <f t="shared" si="7"/>
-        <v>1.4489289466002531E-2</v>
+        <v>1.3438231270328171E-2</v>
       </c>
       <c r="AN32">
         <f t="shared" si="8"/>
@@ -5096,7 +5096,7 @@
       </c>
       <c r="AP32">
         <f t="shared" si="10"/>
-        <v>-1.4489289466002531E-2</v>
+        <v>-1.3438231270328171E-2</v>
       </c>
       <c r="AQ32" t="str">
         <f t="shared" si="11"/>
@@ -6138,7 +6138,7 @@
       </c>
       <c r="R43">
         <f t="shared" si="1"/>
-        <v>0.10295797919395733</v>
+        <v>9.5550053813873381E-2</v>
       </c>
       <c r="S43">
         <f t="shared" si="2"/>
@@ -6150,7 +6150,7 @@
       </c>
       <c r="U43">
         <f t="shared" si="4"/>
-        <v>0.16679192629421088</v>
+        <v>0.1547910871784749</v>
       </c>
       <c r="V43">
         <f t="shared" si="5"/>
@@ -6162,7 +6162,7 @@
       </c>
       <c r="AM43">
         <f t="shared" si="7"/>
-        <v>0.10295797919395733</v>
+        <v>9.5550053813873381E-2</v>
       </c>
       <c r="AN43">
         <f t="shared" si="8"/>
@@ -6174,7 +6174,7 @@
       </c>
       <c r="AP43">
         <f t="shared" si="10"/>
-        <v>6.3833947100253557E-2</v>
+        <v>5.9241033364601514E-2</v>
       </c>
       <c r="AQ43" t="str">
         <f t="shared" si="11"/>
@@ -6432,7 +6432,7 @@
       </c>
       <c r="R46">
         <f t="shared" si="1"/>
-        <v>6.899549984124731E-3</v>
+        <v>6.0343492488661998E-3</v>
       </c>
       <c r="S46">
         <f t="shared" si="2"/>
@@ -6456,7 +6456,7 @@
       </c>
       <c r="AM46">
         <f t="shared" si="7"/>
-        <v>6.899549984124731E-3</v>
+        <v>6.0343492488661998E-3</v>
       </c>
       <c r="AN46">
         <f t="shared" si="8"/>
@@ -6468,7 +6468,7 @@
       </c>
       <c r="AP46">
         <f t="shared" si="10"/>
-        <v>-6.899549984124731E-3</v>
+        <v>-6.0343492488661998E-3</v>
       </c>
       <c r="AQ46" t="str">
         <f t="shared" si="11"/>
@@ -6526,7 +6526,7 @@
       </c>
       <c r="Q47">
         <f t="shared" si="0"/>
-        <v>0.11254092250413406</v>
+        <v>0.10862674323889726</v>
       </c>
       <c r="R47">
         <f t="shared" si="1"/>
@@ -6538,7 +6538,7 @@
       </c>
       <c r="T47">
         <f t="shared" si="3"/>
-        <v>0.23295970958355747</v>
+        <v>0.22485735850451732</v>
       </c>
       <c r="U47">
         <f t="shared" si="4"/>
@@ -6550,7 +6550,7 @@
       </c>
       <c r="AL47">
         <f t="shared" si="6"/>
-        <v>0.11254092250413406</v>
+        <v>0.10862674323889726</v>
       </c>
       <c r="AM47">
         <f t="shared" si="7"/>
@@ -6562,7 +6562,7 @@
       </c>
       <c r="AO47">
         <f t="shared" si="9"/>
-        <v>0.12041878707942341</v>
+        <v>0.11623061526562006</v>
       </c>
       <c r="AP47" t="str">
         <f t="shared" si="10"/>
@@ -7510,7 +7510,7 @@
       </c>
       <c r="R57">
         <f t="shared" si="1"/>
-        <v>3.7170559271698655E-4</v>
+        <v>0</v>
       </c>
       <c r="S57">
         <f t="shared" si="2"/>
@@ -7534,7 +7534,7 @@
       </c>
       <c r="AM57">
         <f t="shared" si="7"/>
-        <v>3.7170559271698655E-4</v>
+        <v>0</v>
       </c>
       <c r="AN57">
         <f t="shared" si="8"/>
@@ -7544,9 +7544,9 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="AP57">
+      <c r="AP57" t="str">
         <f t="shared" si="10"/>
-        <v>-3.7170559271698655E-4</v>
+        <v/>
       </c>
       <c r="AQ57" t="str">
         <f t="shared" si="11"/>
@@ -8944,7 +8944,7 @@
       </c>
       <c r="R72">
         <f t="shared" si="13"/>
-        <v>5.3579532987110656E-2</v>
+        <v>5.0266702291117404E-2</v>
       </c>
       <c r="S72">
         <f t="shared" si="14"/>
@@ -8968,7 +8968,7 @@
       </c>
       <c r="AM72">
         <f t="shared" si="19"/>
-        <v>5.3579532987110656E-2</v>
+        <v>5.0266702291117404E-2</v>
       </c>
       <c r="AN72">
         <f t="shared" si="20"/>
@@ -8980,7 +8980,7 @@
       </c>
       <c r="AP72">
         <f t="shared" si="22"/>
-        <v>-5.3579532987110656E-2</v>
+        <v>-5.0266702291117404E-2</v>
       </c>
       <c r="AQ72" t="str">
         <f t="shared" si="23"/>
@@ -9042,7 +9042,7 @@
       </c>
       <c r="R73">
         <f t="shared" si="13"/>
-        <v>1.4253024675482395E-3</v>
+        <v>0</v>
       </c>
       <c r="S73">
         <f t="shared" si="14"/>
@@ -9054,7 +9054,7 @@
       </c>
       <c r="U73">
         <f t="shared" si="16"/>
-        <v>2.5940504909377961E-3</v>
+        <v>0</v>
       </c>
       <c r="V73">
         <f t="shared" si="17"/>
@@ -9066,7 +9066,7 @@
       </c>
       <c r="AM73">
         <f t="shared" si="19"/>
-        <v>1.4253024675482395E-3</v>
+        <v>0</v>
       </c>
       <c r="AN73">
         <f t="shared" si="20"/>
@@ -9076,9 +9076,9 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AP73">
+      <c r="AP73" t="str">
         <f t="shared" si="22"/>
-        <v>1.1687480233895566E-3</v>
+        <v/>
       </c>
       <c r="AQ73" t="str">
         <f t="shared" si="23"/>
@@ -9532,7 +9532,7 @@
       </c>
       <c r="R78">
         <f t="shared" si="13"/>
-        <v>4.842099924087484E-2</v>
+        <v>4.6565463298589571E-2</v>
       </c>
       <c r="S78">
         <f t="shared" si="14"/>
@@ -9556,7 +9556,7 @@
       </c>
       <c r="AM78">
         <f t="shared" si="19"/>
-        <v>4.842099924087484E-2</v>
+        <v>4.6565463298589571E-2</v>
       </c>
       <c r="AN78">
         <f t="shared" si="20"/>
@@ -9568,7 +9568,7 @@
       </c>
       <c r="AP78">
         <f t="shared" si="22"/>
-        <v>-4.842099924087484E-2</v>
+        <v>-4.6565463298589571E-2</v>
       </c>
       <c r="AQ78" t="str">
         <f t="shared" si="23"/>
@@ -9630,7 +9630,7 @@
       </c>
       <c r="R79">
         <f t="shared" si="13"/>
-        <v>1.1353987134978816E-3</v>
+        <v>0</v>
       </c>
       <c r="S79">
         <f t="shared" si="14"/>
@@ -9642,7 +9642,7 @@
       </c>
       <c r="U79">
         <f t="shared" si="16"/>
-        <v>2.0664256585661445E-3</v>
+        <v>0</v>
       </c>
       <c r="V79">
         <f t="shared" si="17"/>
@@ -9654,7 +9654,7 @@
       </c>
       <c r="AM79">
         <f t="shared" si="19"/>
-        <v>1.1353987134978816E-3</v>
+        <v>0</v>
       </c>
       <c r="AN79">
         <f t="shared" si="20"/>
@@ -9664,9 +9664,9 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AP79">
+      <c r="AP79" t="str">
         <f t="shared" si="22"/>
-        <v>9.3102694506826296E-4</v>
+        <v/>
       </c>
       <c r="AQ79" t="str">
         <f t="shared" si="23"/>
@@ -9724,7 +9724,7 @@
       </c>
       <c r="Q80">
         <f t="shared" si="12"/>
-        <v>8.326950265630112E-2</v>
+        <v>8.0985318118896088E-2</v>
       </c>
       <c r="R80">
         <f t="shared" si="13"/>
@@ -9748,7 +9748,7 @@
       </c>
       <c r="AL80">
         <f t="shared" si="18"/>
-        <v>8.326950265630112E-2</v>
+        <v>8.0985318118896088E-2</v>
       </c>
       <c r="AM80">
         <f t="shared" si="19"/>
@@ -9760,7 +9760,7 @@
       </c>
       <c r="AO80">
         <f t="shared" si="21"/>
-        <v>-8.326950265630112E-2</v>
+        <v>-8.0985318118896088E-2</v>
       </c>
       <c r="AP80" t="str">
         <f t="shared" si="22"/>
@@ -10120,7 +10120,7 @@
       </c>
       <c r="R84">
         <f t="shared" si="13"/>
-        <v>0.13565784621329086</v>
+        <v>0.13135103045545532</v>
       </c>
       <c r="S84">
         <f t="shared" si="14"/>
@@ -10144,7 +10144,7 @@
       </c>
       <c r="AM84">
         <f t="shared" si="19"/>
-        <v>0.13565784621329086</v>
+        <v>0.13135103045545532</v>
       </c>
       <c r="AN84">
         <f t="shared" si="20"/>
@@ -10156,7 +10156,7 @@
       </c>
       <c r="AP84">
         <f t="shared" si="22"/>
-        <v>-0.13565784621329086</v>
+        <v>-0.13135103045545532</v>
       </c>
       <c r="AQ84" t="str">
         <f t="shared" si="23"/>
@@ -12570,7 +12570,7 @@
       </c>
       <c r="R109">
         <f t="shared" si="13"/>
-        <v>5.7943286971159802E-2</v>
+        <v>5.0862786299991636E-2</v>
       </c>
       <c r="S109">
         <f t="shared" si="14"/>
@@ -12582,7 +12582,7 @@
       </c>
       <c r="U109">
         <f t="shared" si="16"/>
-        <v>9.3868124893278879E-2</v>
+        <v>8.2397713805986456E-2</v>
       </c>
       <c r="V109">
         <f t="shared" si="17"/>
@@ -12594,7 +12594,7 @@
       </c>
       <c r="AM109">
         <f t="shared" si="19"/>
-        <v>5.7943286971159802E-2</v>
+        <v>5.0862786299991636E-2</v>
       </c>
       <c r="AN109">
         <f t="shared" si="20"/>
@@ -12606,7 +12606,7 @@
       </c>
       <c r="AP109">
         <f t="shared" si="22"/>
-        <v>3.5924837922119077E-2</v>
+        <v>3.153492750599482E-2</v>
       </c>
       <c r="AQ109" t="str">
         <f t="shared" si="23"/>
@@ -14040,7 +14040,7 @@
       </c>
       <c r="R124">
         <f t="shared" si="13"/>
-        <v>0.15158211875444288</v>
+        <v>0.1464841205943398</v>
       </c>
       <c r="S124">
         <f t="shared" si="14"/>
@@ -14052,7 +14052,7 @@
       </c>
       <c r="U124">
         <f t="shared" si="16"/>
-        <v>0.28800602563344146</v>
+        <v>0.27831982912924558</v>
       </c>
       <c r="V124">
         <f t="shared" si="17"/>
@@ -14064,7 +14064,7 @@
       </c>
       <c r="AM124">
         <f t="shared" si="19"/>
-        <v>0.15158211875444288</v>
+        <v>0.1464841205943398</v>
       </c>
       <c r="AN124">
         <f t="shared" si="20"/>
@@ -14076,7 +14076,7 @@
       </c>
       <c r="AP124">
         <f t="shared" si="22"/>
-        <v>0.13642390687899858</v>
+        <v>0.13183570853490578</v>
       </c>
       <c r="AQ124" t="str">
         <f t="shared" si="23"/>
@@ -14330,7 +14330,7 @@
       </c>
       <c r="Q127">
         <f t="shared" si="12"/>
-        <v>1.7300949742557359E-2</v>
+        <v>1.6261849815847218E-2</v>
       </c>
       <c r="R127">
         <f t="shared" si="13"/>
@@ -14354,7 +14354,7 @@
       </c>
       <c r="AL127">
         <f t="shared" si="18"/>
-        <v>1.7300949742557359E-2</v>
+        <v>1.6261849815847218E-2</v>
       </c>
       <c r="AM127">
         <f t="shared" si="19"/>
@@ -14366,7 +14366,7 @@
       </c>
       <c r="AO127">
         <f t="shared" si="21"/>
-        <v>-1.7300949742557359E-2</v>
+        <v>-1.6261849815847218E-2</v>
       </c>
       <c r="AP127" t="str">
         <f t="shared" si="22"/>
@@ -14922,7 +14922,7 @@
       </c>
       <c r="R133">
         <f t="shared" si="25"/>
-        <v>4.0775282576631267E-2</v>
+        <v>3.8238246833907807E-2</v>
       </c>
       <c r="S133">
         <f t="shared" si="26"/>
@@ -14934,7 +14934,7 @@
       </c>
       <c r="U133">
         <f t="shared" si="28"/>
-        <v>9.500640840355086E-2</v>
+        <v>8.9095115123005192E-2</v>
       </c>
       <c r="V133">
         <f t="shared" si="29"/>
@@ -14946,7 +14946,7 @@
       </c>
       <c r="AM133">
         <f t="shared" si="31"/>
-        <v>4.0775282576631267E-2</v>
+        <v>3.8238246833907807E-2</v>
       </c>
       <c r="AN133">
         <f t="shared" si="32"/>
@@ -14958,7 +14958,7 @@
       </c>
       <c r="AP133">
         <f t="shared" si="34"/>
-        <v>5.4231125826919593E-2</v>
+        <v>5.0856868289097384E-2</v>
       </c>
       <c r="AQ133" t="str">
         <f t="shared" si="35"/>
@@ -15114,7 +15114,7 @@
       </c>
       <c r="Q135">
         <f t="shared" si="24"/>
-        <v>4.5471692848701895E-2</v>
+        <v>4.2670749750340409E-2</v>
       </c>
       <c r="R135">
         <f t="shared" si="25"/>
@@ -15126,7 +15126,7 @@
       </c>
       <c r="T135">
         <f t="shared" si="27"/>
-        <v>0.10231130890957926</v>
+        <v>9.600918693826592E-2</v>
       </c>
       <c r="U135">
         <f t="shared" si="28"/>
@@ -15138,7 +15138,7 @@
       </c>
       <c r="AL135">
         <f t="shared" si="30"/>
-        <v>4.5471692848701895E-2</v>
+        <v>4.2670749750340409E-2</v>
       </c>
       <c r="AM135">
         <f t="shared" si="31"/>
@@ -15150,7 +15150,7 @@
       </c>
       <c r="AO135">
         <f t="shared" si="33"/>
-        <v>5.6839616060877368E-2</v>
+        <v>5.3338437187925511E-2</v>
       </c>
       <c r="AP135" t="str">
         <f t="shared" si="34"/>
@@ -15889,7 +15889,7 @@
       </c>
       <c r="Q143">
         <f t="shared" si="24"/>
-        <v>1.1830090133472915E-2</v>
+        <v>3.9908695824382168E-3</v>
       </c>
       <c r="R143">
         <f t="shared" si="25"/>
@@ -15901,7 +15901,7 @@
       </c>
       <c r="T143">
         <f t="shared" si="27"/>
-        <v>1.8336639706883019E-2</v>
+        <v>6.1858478527792365E-3</v>
       </c>
       <c r="U143">
         <f t="shared" si="28"/>
@@ -15913,7 +15913,7 @@
       </c>
       <c r="AL143">
         <f t="shared" si="30"/>
-        <v>1.1830090133472915E-2</v>
+        <v>3.9908695824382168E-3</v>
       </c>
       <c r="AM143">
         <f t="shared" si="31"/>
@@ -15925,7 +15925,7 @@
       </c>
       <c r="AO143">
         <f t="shared" si="33"/>
-        <v>6.5065495734101045E-3</v>
+        <v>2.1949782703410197E-3</v>
       </c>
       <c r="AP143" t="str">
         <f t="shared" si="34"/>
@@ -15991,7 +15991,7 @@
       </c>
       <c r="R144">
         <f t="shared" si="25"/>
-        <v>1.9256312771320783E-2</v>
+        <v>1.7694274417546452E-2</v>
       </c>
       <c r="S144">
         <f t="shared" si="26"/>
@@ -16015,7 +16015,7 @@
       </c>
       <c r="AM144">
         <f t="shared" si="31"/>
-        <v>1.9256312771320783E-2</v>
+        <v>1.7694274417546452E-2</v>
       </c>
       <c r="AN144">
         <f t="shared" si="32"/>
@@ -16027,7 +16027,7 @@
       </c>
       <c r="AP144">
         <f t="shared" si="34"/>
-        <v>-1.9256312771320783E-2</v>
+        <v>-1.7694274417546452E-2</v>
       </c>
       <c r="AQ144" t="str">
         <f t="shared" si="35"/>
@@ -16187,7 +16187,7 @@
       </c>
       <c r="R146">
         <f t="shared" si="25"/>
-        <v>1.4381577787017208E-2</v>
+        <v>1.3776962642352175E-2</v>
       </c>
       <c r="S146">
         <f t="shared" si="26"/>
@@ -16199,7 +16199,7 @@
       </c>
       <c r="U146">
         <f t="shared" si="28"/>
-        <v>5.5369074480016253E-2</v>
+        <v>5.3041306173055879E-2</v>
       </c>
       <c r="V146">
         <f t="shared" si="29"/>
@@ -16211,7 +16211,7 @@
       </c>
       <c r="AM146">
         <f t="shared" si="31"/>
-        <v>1.4381577787017208E-2</v>
+        <v>1.3776962642352175E-2</v>
       </c>
       <c r="AN146">
         <f t="shared" si="32"/>
@@ -16223,7 +16223,7 @@
       </c>
       <c r="AP146">
         <f t="shared" si="34"/>
-        <v>4.0987496692999045E-2</v>
+        <v>3.9264343530703703E-2</v>
       </c>
       <c r="AQ146" t="str">
         <f t="shared" si="35"/>
@@ -16557,7 +16557,7 @@
       </c>
       <c r="Q150">
         <f t="shared" si="24"/>
-        <v>0.10046505045423026</v>
+        <v>9.6192343276717163E-2</v>
       </c>
       <c r="R150">
         <f t="shared" si="25"/>
@@ -16569,7 +16569,7 @@
       </c>
       <c r="T150">
         <f t="shared" si="27"/>
-        <v>0.19892079989937592</v>
+        <v>0.19046083968789998</v>
       </c>
       <c r="U150">
         <f t="shared" si="28"/>
@@ -16581,7 +16581,7 @@
       </c>
       <c r="AL150">
         <f t="shared" si="30"/>
-        <v>0.10046505045423026</v>
+        <v>9.6192343276717163E-2</v>
       </c>
       <c r="AM150">
         <f t="shared" si="31"/>
@@ -16593,7 +16593,7 @@
       </c>
       <c r="AO150">
         <f t="shared" si="33"/>
-        <v>9.8455749445145652E-2</v>
+        <v>9.4268496411182817E-2</v>
       </c>
       <c r="AP150" t="str">
         <f t="shared" si="34"/>
@@ -16757,7 +16757,7 @@
       </c>
       <c r="R152">
         <f t="shared" si="25"/>
-        <v>4.1472854180033547E-3</v>
+        <v>3.6346055571766511E-3</v>
       </c>
       <c r="S152">
         <f t="shared" si="26"/>
@@ -16781,7 +16781,7 @@
       </c>
       <c r="AM152">
         <f t="shared" si="31"/>
-        <v>4.1472854180033547E-3</v>
+        <v>3.6346055571766511E-3</v>
       </c>
       <c r="AN152">
         <f t="shared" si="32"/>
@@ -16793,7 +16793,7 @@
       </c>
       <c r="AP152">
         <f t="shared" si="34"/>
-        <v>-4.1472854180033547E-3</v>
+        <v>-3.6346055571766511E-3</v>
       </c>
       <c r="AQ152" t="str">
         <f t="shared" si="35"/>
@@ -18022,7 +18022,7 @@
       </c>
       <c r="R165">
         <f t="shared" si="25"/>
-        <v>9.9083438185652351E-2</v>
+        <v>9.4351418109222762E-2</v>
       </c>
       <c r="S165">
         <f t="shared" si="26"/>
@@ -18034,7 +18034,7 @@
       </c>
       <c r="U165">
         <f t="shared" si="28"/>
-        <v>0.18825853255273944</v>
+        <v>0.17926769440752324</v>
       </c>
       <c r="V165">
         <f t="shared" si="29"/>
@@ -18046,7 +18046,7 @@
       </c>
       <c r="AM165">
         <f t="shared" si="31"/>
-        <v>9.9083438185652351E-2</v>
+        <v>9.4351418109222762E-2</v>
       </c>
       <c r="AN165">
         <f t="shared" si="32"/>
@@ -18058,7 +18058,7 @@
       </c>
       <c r="AP165">
         <f t="shared" si="34"/>
-        <v>8.9175094367087093E-2</v>
+        <v>8.491627629830048E-2</v>
       </c>
       <c r="AQ165" t="str">
         <f t="shared" si="35"/>
@@ -18218,7 +18218,7 @@
       </c>
       <c r="R167">
         <f t="shared" si="25"/>
-        <v>6.48324818375412E-3</v>
+        <v>5.7845401173879374E-3</v>
       </c>
       <c r="S167">
         <f t="shared" si="26"/>
@@ -18242,7 +18242,7 @@
       </c>
       <c r="AM167">
         <f t="shared" si="31"/>
-        <v>6.48324818375412E-3</v>
+        <v>5.7845401173879374E-3</v>
       </c>
       <c r="AN167">
         <f t="shared" si="32"/>
@@ -18254,7 +18254,7 @@
       </c>
       <c r="AP167">
         <f t="shared" si="34"/>
-        <v>-6.48324818375412E-3</v>
+        <v>-5.7845401173879374E-3</v>
       </c>
       <c r="AQ167" t="str">
         <f t="shared" si="35"/>
@@ -18414,7 +18414,7 @@
       </c>
       <c r="R169">
         <f t="shared" si="25"/>
-        <v>1.2105030400641925E-2</v>
+        <v>1.181601108337188E-2</v>
       </c>
       <c r="S169">
         <f t="shared" si="26"/>
@@ -18438,7 +18438,7 @@
       </c>
       <c r="AM169">
         <f t="shared" si="31"/>
-        <v>1.2105030400641925E-2</v>
+        <v>1.181601108337188E-2</v>
       </c>
       <c r="AN169">
         <f t="shared" si="32"/>
@@ -18450,7 +18450,7 @@
       </c>
       <c r="AP169">
         <f t="shared" si="34"/>
-        <v>-1.2105030400641925E-2</v>
+        <v>-1.181601108337188E-2</v>
       </c>
       <c r="AQ169" t="str">
         <f t="shared" si="35"/>
@@ -18512,7 +18512,7 @@
       </c>
       <c r="R170">
         <f t="shared" si="25"/>
-        <v>3.7683117594367599E-3</v>
+        <v>1.0661416658853673E-3</v>
       </c>
       <c r="S170">
         <f t="shared" si="26"/>
@@ -18536,7 +18536,7 @@
       </c>
       <c r="AM170">
         <f t="shared" si="31"/>
-        <v>3.7683117594367599E-3</v>
+        <v>1.0661416658853673E-3</v>
       </c>
       <c r="AN170">
         <f t="shared" si="32"/>
@@ -18548,7 +18548,7 @@
       </c>
       <c r="AP170">
         <f t="shared" si="34"/>
-        <v>-3.7683117594367599E-3</v>
+        <v>-1.0661416658853673E-3</v>
       </c>
       <c r="AQ170" t="str">
         <f t="shared" si="35"/>
@@ -22814,7 +22814,7 @@
       </c>
       <c r="R215">
         <f t="shared" si="37"/>
-        <v>0.11836216457587573</v>
+        <v>0.11708365036549609</v>
       </c>
       <c r="S215">
         <f t="shared" si="38"/>
@@ -22838,7 +22838,7 @@
       </c>
       <c r="AM215">
         <f t="shared" si="43"/>
-        <v>0.11836216457587573</v>
+        <v>0.11708365036549609</v>
       </c>
       <c r="AN215">
         <f t="shared" si="44"/>
@@ -22850,7 +22850,7 @@
       </c>
       <c r="AP215">
         <f t="shared" si="46"/>
-        <v>-0.11836216457587573</v>
+        <v>-0.11708365036549609</v>
       </c>
       <c r="AQ215" t="str">
         <f t="shared" si="47"/>
@@ -23010,7 +23010,7 @@
       </c>
       <c r="R217">
         <f t="shared" si="37"/>
-        <v>9.6457946122242566E-2</v>
+        <v>8.961866156015863E-2</v>
       </c>
       <c r="S217">
         <f t="shared" si="38"/>
@@ -23034,7 +23034,7 @@
       </c>
       <c r="AM217">
         <f t="shared" si="43"/>
-        <v>9.6457946122242566E-2</v>
+        <v>8.961866156015863E-2</v>
       </c>
       <c r="AN217">
         <f t="shared" si="44"/>
@@ -23046,7 +23046,7 @@
       </c>
       <c r="AP217">
         <f t="shared" si="46"/>
-        <v>-9.6457946122242566E-2</v>
+        <v>-8.961866156015863E-2</v>
       </c>
       <c r="AQ217" t="str">
         <f t="shared" si="47"/>
@@ -23206,7 +23206,7 @@
       </c>
       <c r="R219">
         <f t="shared" si="37"/>
-        <v>0.13517965749565841</v>
+        <v>0.12475355212099992</v>
       </c>
       <c r="S219">
         <f t="shared" si="38"/>
@@ -23218,7 +23218,7 @@
       </c>
       <c r="U219">
         <f t="shared" si="40"/>
-        <v>0.19871409651861785</v>
+        <v>0.18338772161786987</v>
       </c>
       <c r="V219">
         <f t="shared" si="41"/>
@@ -23230,7 +23230,7 @@
       </c>
       <c r="AM219">
         <f t="shared" si="43"/>
-        <v>0.13517965749565841</v>
+        <v>0.12475355212099992</v>
       </c>
       <c r="AN219">
         <f t="shared" si="44"/>
@@ -23242,7 +23242,7 @@
       </c>
       <c r="AP219">
         <f t="shared" si="46"/>
-        <v>6.3534439022959438E-2</v>
+        <v>5.8634169496869948E-2</v>
       </c>
       <c r="AQ219" t="str">
         <f t="shared" si="47"/>
@@ -23598,7 +23598,7 @@
       </c>
       <c r="R223">
         <f t="shared" si="37"/>
-        <v>4.8134901371489652E-2</v>
+        <v>4.7392841000783559E-2</v>
       </c>
       <c r="S223">
         <f t="shared" si="38"/>
@@ -23622,7 +23622,7 @@
       </c>
       <c r="AM223">
         <f t="shared" si="43"/>
-        <v>4.8134901371489652E-2</v>
+        <v>4.7392841000783559E-2</v>
       </c>
       <c r="AN223">
         <f t="shared" si="44"/>
@@ -23634,7 +23634,7 @@
       </c>
       <c r="AP223">
         <f t="shared" si="46"/>
-        <v>-4.8134901371489652E-2</v>
+        <v>-4.7392841000783559E-2</v>
       </c>
       <c r="AQ223" t="str">
         <f t="shared" si="47"/>
@@ -25068,7 +25068,7 @@
       </c>
       <c r="R238">
         <f t="shared" si="37"/>
-        <v>3.881864677586222E-4</v>
+        <v>5.7314777053840693E-6</v>
       </c>
       <c r="S238">
         <f t="shared" si="38"/>
@@ -25092,7 +25092,7 @@
       </c>
       <c r="AM238">
         <f t="shared" si="43"/>
-        <v>3.881864677586222E-4</v>
+        <v>5.7314777053840693E-6</v>
       </c>
       <c r="AN238">
         <f t="shared" si="44"/>
@@ -25104,7 +25104,7 @@
       </c>
       <c r="AP238">
         <f t="shared" si="46"/>
-        <v>-3.881864677586222E-4</v>
+        <v>-5.7314777053840693E-6</v>
       </c>
       <c r="AQ238" t="str">
         <f t="shared" si="47"/>
@@ -25451,7 +25451,7 @@
       </c>
       <c r="R242">
         <f t="shared" si="37"/>
-        <v>9.8252691525195779E-3</v>
+        <v>8.7803554354019542E-3</v>
       </c>
       <c r="S242">
         <f t="shared" si="38"/>
@@ -25475,7 +25475,7 @@
       </c>
       <c r="AM242">
         <f t="shared" si="43"/>
-        <v>9.8252691525195779E-3</v>
+        <v>8.7803554354019542E-3</v>
       </c>
       <c r="AN242">
         <f t="shared" si="44"/>
@@ -25487,7 +25487,7 @@
       </c>
       <c r="AP242">
         <f t="shared" si="46"/>
-        <v>-9.8252691525195779E-3</v>
+        <v>-8.7803554354019542E-3</v>
       </c>
       <c r="AQ242" t="str">
         <f t="shared" si="47"/>
@@ -27117,7 +27117,7 @@
       </c>
       <c r="R259">
         <f t="shared" si="49"/>
-        <v>3.7923618791116054E-2</v>
+        <v>3.3609349505041131E-2</v>
       </c>
       <c r="S259">
         <f t="shared" si="50"/>
@@ -27129,7 +27129,7 @@
       </c>
       <c r="U259">
         <f t="shared" si="52"/>
-        <v>7.2054875703120497E-2</v>
+        <v>6.3857764059578145E-2</v>
       </c>
       <c r="V259">
         <f t="shared" si="53"/>
@@ -27141,7 +27141,7 @@
       </c>
       <c r="AM259">
         <f t="shared" si="55"/>
-        <v>3.7923618791116054E-2</v>
+        <v>3.3609349505041131E-2</v>
       </c>
       <c r="AN259">
         <f t="shared" si="56"/>
@@ -27153,7 +27153,7 @@
       </c>
       <c r="AP259">
         <f t="shared" si="58"/>
-        <v>3.4131256912004443E-2</v>
+        <v>3.0248414554537015E-2</v>
       </c>
       <c r="AQ259" t="str">
         <f t="shared" si="59"/>
@@ -28382,7 +28382,7 @@
       </c>
       <c r="R272">
         <f t="shared" si="49"/>
-        <v>3.8273729965195735E-2</v>
+        <v>3.7418975040024005E-2</v>
       </c>
       <c r="S272">
         <f t="shared" si="50"/>
@@ -28406,7 +28406,7 @@
       </c>
       <c r="AM272">
         <f t="shared" si="55"/>
-        <v>3.8273729965195735E-2</v>
+        <v>3.7418975040024005E-2</v>
       </c>
       <c r="AN272">
         <f t="shared" si="56"/>
@@ -28418,7 +28418,7 @@
       </c>
       <c r="AP272">
         <f t="shared" si="58"/>
-        <v>-3.8273729965195735E-2</v>
+        <v>-3.7418975040024005E-2</v>
       </c>
       <c r="AQ272" t="str">
         <f t="shared" si="59"/>
@@ -29166,7 +29166,7 @@
       </c>
       <c r="R280">
         <f t="shared" si="49"/>
-        <v>5.2430579559550217E-2</v>
+        <v>4.5389929783030358E-2</v>
       </c>
       <c r="S280">
         <f t="shared" si="50"/>
@@ -29178,7 +29178,7 @@
       </c>
       <c r="U280">
         <f t="shared" si="52"/>
-        <v>8.4937538886471362E-2</v>
+        <v>7.3531686248509184E-2</v>
       </c>
       <c r="V280">
         <f t="shared" si="53"/>
@@ -29190,7 +29190,7 @@
       </c>
       <c r="AM280">
         <f t="shared" si="55"/>
-        <v>5.2430579559550217E-2</v>
+        <v>4.5389929783030358E-2</v>
       </c>
       <c r="AN280">
         <f t="shared" si="56"/>
@@ -29202,7 +29202,7 @@
       </c>
       <c r="AP280">
         <f t="shared" si="58"/>
-        <v>3.2506959326921145E-2</v>
+        <v>2.8141756465478826E-2</v>
       </c>
       <c r="AQ280" t="str">
         <f t="shared" si="59"/>
@@ -29460,7 +29460,7 @@
       </c>
       <c r="R283">
         <f t="shared" si="49"/>
-        <v>0.15706482308151015</v>
+        <v>0.15533466485232494</v>
       </c>
       <c r="S283">
         <f t="shared" si="50"/>
@@ -29472,7 +29472,7 @@
       </c>
       <c r="U283">
         <f t="shared" si="52"/>
-        <v>0.51831391616898348</v>
+        <v>0.51260439401267233</v>
       </c>
       <c r="V283">
         <f t="shared" si="53"/>
@@ -29484,7 +29484,7 @@
       </c>
       <c r="AM283">
         <f t="shared" si="55"/>
-        <v>0.15706482308151015</v>
+        <v>0.15533466485232494</v>
       </c>
       <c r="AN283">
         <f t="shared" si="56"/>
@@ -29496,7 +29496,7 @@
       </c>
       <c r="AP283">
         <f t="shared" si="58"/>
-        <v>0.36124909308747333</v>
+        <v>0.35726972916034738</v>
       </c>
       <c r="AQ283" t="str">
         <f t="shared" si="59"/>
@@ -29754,7 +29754,7 @@
       </c>
       <c r="R286">
         <f t="shared" si="49"/>
-        <v>8.1569791710853767E-3</v>
+        <v>4.6035765598890777E-3</v>
       </c>
       <c r="S286">
         <f t="shared" si="50"/>
@@ -29766,7 +29766,7 @@
       </c>
       <c r="U286">
         <f t="shared" si="52"/>
-        <v>1.6313958342170753E-2</v>
+        <v>9.2071531197781553E-3</v>
       </c>
       <c r="V286">
         <f t="shared" si="53"/>
@@ -29778,7 +29778,7 @@
       </c>
       <c r="AM286">
         <f t="shared" si="55"/>
-        <v>8.1569791710853767E-3</v>
+        <v>4.6035765598890777E-3</v>
       </c>
       <c r="AN286">
         <f t="shared" si="56"/>
@@ -29790,7 +29790,7 @@
       </c>
       <c r="AP286">
         <f t="shared" si="58"/>
-        <v>8.1569791710853767E-3</v>
+        <v>4.6035765598890777E-3</v>
       </c>
       <c r="AQ286" t="str">
         <f t="shared" si="59"/>
@@ -29852,7 +29852,7 @@
       </c>
       <c r="R287">
         <f t="shared" si="49"/>
-        <v>7.2754708661249001E-4</v>
+        <v>1.6210588826370831E-4</v>
       </c>
       <c r="S287">
         <f t="shared" si="50"/>
@@ -29876,7 +29876,7 @@
       </c>
       <c r="AM287">
         <f t="shared" si="55"/>
-        <v>7.2754708661249001E-4</v>
+        <v>1.6210588826370831E-4</v>
       </c>
       <c r="AN287">
         <f t="shared" si="56"/>
@@ -29888,7 +29888,7 @@
       </c>
       <c r="AP287">
         <f t="shared" si="58"/>
-        <v>-7.2754708661249001E-4</v>
+        <v>-1.6210588826370831E-4</v>
       </c>
       <c r="AQ287" t="str">
         <f t="shared" si="59"/>
@@ -31170,7 +31170,7 @@
       </c>
       <c r="R301">
         <f t="shared" si="49"/>
-        <v>1.7448241785479657E-2</v>
+        <v>1.1837190930503838E-2</v>
       </c>
       <c r="S301">
         <f t="shared" si="50"/>
@@ -31182,7 +31182,7 @@
       </c>
       <c r="U301">
         <f t="shared" si="52"/>
-        <v>3.0010975871025008E-2</v>
+        <v>2.03599684004666E-2</v>
       </c>
       <c r="V301">
         <f t="shared" si="53"/>
@@ -31194,7 +31194,7 @@
       </c>
       <c r="AM301">
         <f t="shared" si="55"/>
-        <v>1.7448241785479657E-2</v>
+        <v>1.1837190930503838E-2</v>
       </c>
       <c r="AN301">
         <f t="shared" si="56"/>
@@ -31206,7 +31206,7 @@
       </c>
       <c r="AP301">
         <f t="shared" si="58"/>
-        <v>1.2562734085545351E-2</v>
+        <v>8.5227774699627619E-3</v>
       </c>
       <c r="AQ301" t="str">
         <f t="shared" si="59"/>
@@ -31531,7 +31531,7 @@
       </c>
       <c r="Q305">
         <f t="shared" si="48"/>
-        <v>3.6789052316274939E-2</v>
+        <v>3.3146617880755125E-2</v>
       </c>
       <c r="R305">
         <f t="shared" si="49"/>
@@ -31620,7 +31620,7 @@
       </c>
       <c r="Q306">
         <f t="shared" si="48"/>
-        <v>8.0377815731255797E-2</v>
+        <v>7.3530883746182218E-2</v>
       </c>
       <c r="R306">
         <f t="shared" si="49"/>
@@ -32595,7 +32595,7 @@
       </c>
       <c r="R316">
         <f t="shared" si="49"/>
-        <v>4.1014676338934297E-2</v>
+        <v>3.9202467658612239E-2</v>
       </c>
       <c r="S316">
         <f t="shared" si="50"/>
@@ -32619,7 +32619,7 @@
       </c>
       <c r="AM316">
         <f t="shared" si="55"/>
-        <v>4.1014676338934297E-2</v>
+        <v>3.9202467658612239E-2</v>
       </c>
       <c r="AN316">
         <f t="shared" si="56"/>
@@ -32631,7 +32631,7 @@
       </c>
       <c r="AP316">
         <f t="shared" si="58"/>
-        <v>-4.1014676338934297E-2</v>
+        <v>-3.9202467658612239E-2</v>
       </c>
       <c r="AQ316" t="str">
         <f t="shared" si="59"/>
@@ -35142,7 +35142,7 @@
       </c>
       <c r="R343">
         <f t="shared" si="61"/>
-        <v>2.926426717143743E-2</v>
+        <v>2.806916408845056E-2</v>
       </c>
       <c r="S343">
         <f t="shared" si="62"/>
@@ -40157,7 +40157,7 @@
       </c>
       <c r="R395">
         <f t="shared" si="73"/>
-        <v>2.8268730761465966E-3</v>
+        <v>0</v>
       </c>
       <c r="S395">
         <f t="shared" si="74"/>
@@ -40181,7 +40181,7 @@
       </c>
       <c r="AM395">
         <f t="shared" si="79"/>
-        <v>2.8268730761465966E-3</v>
+        <v>0</v>
       </c>
       <c r="AN395">
         <f t="shared" si="80"/>
@@ -40191,9 +40191,9 @@
         <f t="shared" si="81"/>
         <v/>
       </c>
-      <c r="AP395">
+      <c r="AP395" t="str">
         <f t="shared" si="82"/>
-        <v>-2.8268730761465966E-3</v>
+        <v/>
       </c>
       <c r="AQ395" t="str">
         <f t="shared" si="83"/>
@@ -40451,7 +40451,7 @@
       </c>
       <c r="R398">
         <f t="shared" si="73"/>
-        <v>3.3273982655239176E-3</v>
+        <v>6.9422526757284553E-4</v>
       </c>
       <c r="S398">
         <f t="shared" si="74"/>
@@ -40463,7 +40463,7 @@
       </c>
       <c r="U398">
         <f t="shared" si="76"/>
-        <v>7.3868241494630974E-3</v>
+        <v>1.5411800940117173E-3</v>
       </c>
       <c r="V398">
         <f t="shared" si="77"/>
@@ -40475,7 +40475,7 @@
       </c>
       <c r="AM398">
         <f t="shared" si="79"/>
-        <v>3.3273982655239176E-3</v>
+        <v>6.9422526757284553E-4</v>
       </c>
       <c r="AN398">
         <f t="shared" si="80"/>
@@ -40487,7 +40487,7 @@
       </c>
       <c r="AP398">
         <f t="shared" si="82"/>
-        <v>4.0594258839391799E-3</v>
+        <v>8.4695482643887179E-4</v>
       </c>
       <c r="AQ398" t="str">
         <f t="shared" si="83"/>
@@ -42509,7 +42509,7 @@
       </c>
       <c r="R419">
         <f t="shared" si="73"/>
-        <v>1.3815209918202065E-2</v>
+        <v>6.3014918352262139E-3</v>
       </c>
       <c r="S419">
         <f t="shared" si="74"/>
@@ -42521,7 +42521,7 @@
       </c>
       <c r="U419">
         <f t="shared" si="76"/>
-        <v>2.1689879571577243E-2</v>
+        <v>9.8933421813051561E-3</v>
       </c>
       <c r="V419">
         <f t="shared" si="77"/>
@@ -42533,7 +42533,7 @@
       </c>
       <c r="AM419">
         <f t="shared" si="79"/>
-        <v>1.3815209918202065E-2</v>
+        <v>6.3014918352262139E-3</v>
       </c>
       <c r="AN419">
         <f t="shared" si="80"/>
@@ -42545,7 +42545,7 @@
       </c>
       <c r="AP419">
         <f t="shared" si="82"/>
-        <v>7.8746696533751777E-3</v>
+        <v>3.5918503460789421E-3</v>
       </c>
       <c r="AQ419" t="str">
         <f t="shared" si="83"/>
@@ -43191,7 +43191,7 @@
       </c>
       <c r="Q426">
         <f t="shared" si="72"/>
-        <v>4.3406314264372914E-2</v>
+        <v>4.145805943428077E-2</v>
       </c>
       <c r="R426">
         <f t="shared" si="73"/>
@@ -43215,7 +43215,7 @@
       </c>
       <c r="AL426">
         <f t="shared" si="78"/>
-        <v>4.3406314264372914E-2</v>
+        <v>4.145805943428077E-2</v>
       </c>
       <c r="AM426">
         <f t="shared" si="79"/>
@@ -43227,7 +43227,7 @@
       </c>
       <c r="AO426">
         <f t="shared" si="81"/>
-        <v>-4.3406314264372914E-2</v>
+        <v>-4.145805943428077E-2</v>
       </c>
       <c r="AP426" t="str">
         <f t="shared" si="82"/>
@@ -43391,7 +43391,7 @@
       </c>
       <c r="R428">
         <f t="shared" si="73"/>
-        <v>2.2411613638342709E-2</v>
+        <v>2.1769322097717703E-2</v>
       </c>
       <c r="S428">
         <f t="shared" si="74"/>
@@ -43415,7 +43415,7 @@
       </c>
       <c r="AM428">
         <f t="shared" si="79"/>
-        <v>2.2411613638342709E-2</v>
+        <v>2.1769322097717703E-2</v>
       </c>
       <c r="AN428">
         <f t="shared" si="80"/>
@@ -43427,7 +43427,7 @@
       </c>
       <c r="AP428">
         <f t="shared" si="82"/>
-        <v>-2.2411613638342709E-2</v>
+        <v>-2.1769322097717703E-2</v>
       </c>
       <c r="AQ428" t="str">
         <f t="shared" si="83"/>
@@ -48780,7 +48780,7 @@
       </c>
       <c r="R484">
         <f t="shared" si="85"/>
-        <v>0.11165414723326283</v>
+        <v>0.10594008397334109</v>
       </c>
       <c r="S484">
         <f t="shared" si="86"/>
@@ -48804,7 +48804,7 @@
       </c>
       <c r="AM484">
         <f t="shared" si="91"/>
-        <v>0.11165414723326283</v>
+        <v>0.10594008397334109</v>
       </c>
       <c r="AN484">
         <f t="shared" si="92"/>
@@ -48816,7 +48816,7 @@
       </c>
       <c r="AP484">
         <f t="shared" si="94"/>
-        <v>-0.11165414723326283</v>
+        <v>-0.10594008397334109</v>
       </c>
       <c r="AQ484" t="str">
         <f t="shared" si="95"/>
@@ -48874,7 +48874,7 @@
       </c>
       <c r="Q485">
         <f t="shared" si="84"/>
-        <v>3.1913605486842411E-2</v>
+        <v>2.4735451465830449E-2</v>
       </c>
       <c r="R485">
         <f t="shared" si="85"/>
@@ -48898,7 +48898,7 @@
       </c>
       <c r="AL485">
         <f t="shared" si="90"/>
-        <v>3.1913605486842411E-2</v>
+        <v>2.4735451465830449E-2</v>
       </c>
       <c r="AM485">
         <f t="shared" si="91"/>
@@ -48910,7 +48910,7 @@
       </c>
       <c r="AO485">
         <f t="shared" si="93"/>
-        <v>-3.1913605486842411E-2</v>
+        <v>-2.4735451465830449E-2</v>
       </c>
       <c r="AP485" t="str">
         <f t="shared" si="94"/>
@@ -52397,7 +52397,7 @@
       </c>
       <c r="R521">
         <f t="shared" si="97"/>
-        <v>7.6139458967203755E-3</v>
+        <v>5.1974237758281583E-3</v>
       </c>
       <c r="S521">
         <f t="shared" si="98"/>
@@ -52409,7 +52409,7 @@
       </c>
       <c r="U521">
         <f t="shared" si="100"/>
-        <v>1.7512075562456861E-2</v>
+        <v>1.1954074684404762E-2</v>
       </c>
       <c r="V521">
         <f t="shared" si="101"/>
@@ -52421,7 +52421,7 @@
       </c>
       <c r="AM521">
         <f t="shared" si="103"/>
-        <v>7.6139458967203755E-3</v>
+        <v>5.1974237758281583E-3</v>
       </c>
       <c r="AN521">
         <f t="shared" si="104"/>
@@ -52433,7 +52433,7 @@
       </c>
       <c r="AP521">
         <f t="shared" si="106"/>
-        <v>9.8981296657364853E-3</v>
+        <v>6.756650908576604E-3</v>
       </c>
       <c r="AQ521" t="str">
         <f t="shared" si="107"/>
@@ -53355,7 +53355,7 @@
       </c>
       <c r="Q531">
         <f t="shared" si="96"/>
-        <v>3.3491309188726781E-3</v>
+        <v>0</v>
       </c>
       <c r="R531">
         <f t="shared" si="97"/>
@@ -53902,7 +53902,7 @@
       </c>
       <c r="R537">
         <f t="shared" si="97"/>
-        <v>3.0104517954657517E-2</v>
+        <v>2.7237120526351077E-2</v>
       </c>
       <c r="S537">
         <f t="shared" si="98"/>
@@ -55261,7 +55261,7 @@
       </c>
       <c r="Q551">
         <f t="shared" si="96"/>
-        <v>3.3432163965033068E-2</v>
+        <v>3.3264103385980237E-2</v>
       </c>
       <c r="R551">
         <f t="shared" si="97"/>
@@ -55285,7 +55285,7 @@
       </c>
       <c r="AL551">
         <f t="shared" si="102"/>
-        <v>3.3432163965033068E-2</v>
+        <v>3.3264103385980237E-2</v>
       </c>
       <c r="AM551">
         <f t="shared" si="103"/>
@@ -55297,7 +55297,7 @@
       </c>
       <c r="AO551">
         <f t="shared" si="105"/>
-        <v>-3.3432163965033068E-2</v>
+        <v>-3.3264103385980237E-2</v>
       </c>
       <c r="AP551" t="str">
         <f t="shared" si="106"/>
@@ -55363,7 +55363,7 @@
       </c>
       <c r="R552">
         <f t="shared" si="97"/>
-        <v>1.7421005621296171E-3</v>
+        <v>1.300442783342376E-3</v>
       </c>
       <c r="S552">
         <f t="shared" si="98"/>
@@ -55387,7 +55387,7 @@
       </c>
       <c r="AM552">
         <f t="shared" si="103"/>
-        <v>1.7421005621296171E-3</v>
+        <v>1.300442783342376E-3</v>
       </c>
       <c r="AN552">
         <f t="shared" si="104"/>
@@ -55399,7 +55399,7 @@
       </c>
       <c r="AP552">
         <f t="shared" si="106"/>
-        <v>-1.7421005621296171E-3</v>
+        <v>-1.300442783342376E-3</v>
       </c>
       <c r="AQ552" t="str">
         <f t="shared" si="107"/>
@@ -55559,7 +55559,7 @@
       </c>
       <c r="R554">
         <f t="shared" si="97"/>
-        <v>2.8633521944497031E-2</v>
+        <v>2.8463168884416745E-2</v>
       </c>
       <c r="S554">
         <f t="shared" si="98"/>
@@ -55583,7 +55583,7 @@
       </c>
       <c r="AM554">
         <f t="shared" si="103"/>
-        <v>2.8633521944497031E-2</v>
+        <v>2.8463168884416745E-2</v>
       </c>
       <c r="AN554">
         <f t="shared" si="104"/>
@@ -55595,7 +55595,7 @@
       </c>
       <c r="AP554">
         <f t="shared" si="106"/>
-        <v>-2.8633521944497031E-2</v>
+        <v>-2.8463168884416745E-2</v>
       </c>
       <c r="AQ554" t="str">
         <f t="shared" si="107"/>
@@ -58008,7 +58008,7 @@
       </c>
       <c r="R580">
         <f t="shared" si="109"/>
-        <v>7.402033698796881E-2</v>
+        <v>7.3281384738274558E-2</v>
       </c>
       <c r="S580">
         <f t="shared" si="110"/>
@@ -58032,7 +58032,7 @@
       </c>
       <c r="AM580">
         <f t="shared" si="115"/>
-        <v>7.402033698796881E-2</v>
+        <v>7.3281384738274558E-2</v>
       </c>
       <c r="AN580">
         <f t="shared" si="116"/>
@@ -58044,7 +58044,7 @@
       </c>
       <c r="AP580">
         <f t="shared" si="118"/>
-        <v>-7.402033698796881E-2</v>
+        <v>-7.3281384738274558E-2</v>
       </c>
       <c r="AQ580" t="str">
         <f t="shared" si="119"/>
@@ -58667,7 +58667,7 @@
       </c>
       <c r="R587">
         <f t="shared" si="109"/>
-        <v>8.0430514370659179E-2</v>
+        <v>7.8060199177122036E-2</v>
       </c>
       <c r="S587">
         <f t="shared" si="110"/>
@@ -60887,13 +60887,13 @@
         <v>135</v>
       </c>
       <c r="E612">
-        <v>0.30647658679143092</v>
+        <v>0.3060784535021277</v>
       </c>
       <c r="F612">
-        <v>0.38007217338287069</v>
+        <v>0.3805284599151858</v>
       </c>
       <c r="G612">
-        <v>0.31345123982569839</v>
+        <v>0.31339308658268628</v>
       </c>
       <c r="H612">
         <v>2.9</v>
@@ -60902,7 +60902,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="J612">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K612" t="s">
         <v>43</v>
@@ -60940,13 +60940,13 @@
         <v>135</v>
       </c>
       <c r="E613">
-        <v>0.28578262572415991</v>
+        <v>0.28598909175253562</v>
       </c>
       <c r="F613">
-        <v>0.42751554995843699</v>
+        <v>0.427066940669665</v>
       </c>
       <c r="G613">
-        <v>0.28670182431740299</v>
+        <v>0.28694396757779961</v>
       </c>
       <c r="H613">
         <v>3.05</v>
@@ -61046,16 +61046,16 @@
         <v>135</v>
       </c>
       <c r="E615">
-        <v>0.42294399122277693</v>
+        <v>0.42266382183344642</v>
       </c>
       <c r="F615">
-        <v>0.2737324947260858</v>
+        <v>0.27393967832688709</v>
       </c>
       <c r="G615">
-        <v>0.30332351405113739</v>
+        <v>0.30339649983966638</v>
       </c>
       <c r="H615">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="I615">
         <v>3.65</v>
@@ -61099,13 +61099,13 @@
         <v>169</v>
       </c>
       <c r="E616">
-        <v>0.26835600249338931</v>
+        <v>0.26931395083961568</v>
       </c>
       <c r="F616">
-        <v>0.44403783810574449</v>
+        <v>0.44214945285182861</v>
       </c>
       <c r="G616">
-        <v>0.28760615940086609</v>
+        <v>0.2885365963085556</v>
       </c>
       <c r="H616">
         <v>3.3</v>
@@ -61152,31 +61152,31 @@
         <v>71</v>
       </c>
       <c r="E617">
-        <v>0.22660306637607219</v>
+        <v>0.22390133288277239</v>
       </c>
       <c r="F617">
-        <v>0.52849773708914116</v>
+        <v>0.53313806969593169</v>
       </c>
       <c r="G617">
-        <v>0.24489919653478659</v>
+        <v>0.24296059742129589</v>
       </c>
       <c r="H617">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="I617">
         <v>1.98</v>
       </c>
       <c r="J617">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="K617" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="L617" t="s">
         <v>30</v>
       </c>
       <c r="M617" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="Q617">
         <f t="shared" si="108"/>
@@ -61205,13 +61205,13 @@
         <v>50</v>
       </c>
       <c r="E618">
-        <v>0.59752503308208305</v>
+        <v>0.59470113418594905</v>
       </c>
       <c r="F618">
-        <v>0.1566157035742364</v>
+        <v>0.15802788792645139</v>
       </c>
       <c r="G618">
-        <v>0.24585926334368061</v>
+        <v>0.2472709778875995</v>
       </c>
       <c r="H618">
         <v>1.55</v>
@@ -61258,22 +61258,22 @@
         <v>63</v>
       </c>
       <c r="E619">
-        <v>0.33387569306207621</v>
+        <v>0.33486878207238768</v>
       </c>
       <c r="F619">
-        <v>0.34987724055394892</v>
+        <v>0.34833732443194149</v>
       </c>
       <c r="G619">
-        <v>0.31624706638397487</v>
+        <v>0.31679389349567078</v>
       </c>
       <c r="H619">
-        <v>2.62</v>
+        <v>2.57</v>
       </c>
       <c r="I619">
-        <v>2.77</v>
+        <v>2.7</v>
       </c>
       <c r="J619">
-        <v>2.8</v>
+        <v>2.95</v>
       </c>
       <c r="K619" t="s">
         <v>30</v>
@@ -61311,22 +61311,22 @@
         <v>63</v>
       </c>
       <c r="E620">
-        <v>0.28074007424141362</v>
+        <v>0.28132792009686092</v>
       </c>
       <c r="F620">
-        <v>0.42950987150540187</v>
+        <v>0.42830806772365121</v>
       </c>
       <c r="G620">
-        <v>0.28975005425318462</v>
+        <v>0.29036401217948787</v>
       </c>
       <c r="H620">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="I620">
         <v>2.2000000000000002</v>
       </c>
       <c r="J620">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="K620" t="s">
         <v>30</v>
@@ -61364,19 +61364,19 @@
         <v>63</v>
       </c>
       <c r="E621">
-        <v>0.43831770424823052</v>
+        <v>0.43558980469482028</v>
       </c>
       <c r="F621">
-        <v>0.25498252700621638</v>
+        <v>0.25700432002937901</v>
       </c>
       <c r="G621">
-        <v>0.30669976874555299</v>
+        <v>0.30740587527580071</v>
       </c>
       <c r="H621">
-        <v>2.0699999999999998</v>
+        <v>2.1</v>
       </c>
       <c r="I621">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J621">
         <v>3.15</v>
@@ -61417,13 +61417,13 @@
         <v>174</v>
       </c>
       <c r="E622">
-        <v>0.1720725262125628</v>
+        <v>0.17140367679945689</v>
       </c>
       <c r="F622">
-        <v>0.61520252405743603</v>
+        <v>0.61640151809609534</v>
       </c>
       <c r="G622">
-        <v>0.21272494973000119</v>
+        <v>0.21219480510444791</v>
       </c>
       <c r="H622">
         <v>6</v>
@@ -61470,22 +61470,22 @@
         <v>53</v>
       </c>
       <c r="E623">
-        <v>0.57186199885301991</v>
+        <v>0.56918956473351934</v>
       </c>
       <c r="F623">
-        <v>0.16994269481419741</v>
+        <v>0.17140303231841711</v>
       </c>
       <c r="G623">
-        <v>0.25819530633278281</v>
+        <v>0.25940740294806369</v>
       </c>
       <c r="H623">
         <v>1.78</v>
       </c>
       <c r="I623">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="J623">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K623" t="s">
         <v>30</v>
@@ -61523,22 +61523,22 @@
         <v>317</v>
       </c>
       <c r="E624">
-        <v>0.46475128368600471</v>
+        <v>0.46337907980295778</v>
       </c>
       <c r="F624">
-        <v>0.2406715315681304</v>
+        <v>0.2418115830948275</v>
       </c>
       <c r="G624">
-        <v>0.29457718474586481</v>
+        <v>0.29480933710221469</v>
       </c>
       <c r="H624">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="I624">
-        <v>4.1500000000000004</v>
+        <v>4.05</v>
       </c>
       <c r="J624">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K624" t="s">
         <v>43</v>
@@ -61576,22 +61576,22 @@
         <v>58</v>
       </c>
       <c r="E625">
-        <v>0.40251066224713949</v>
+        <v>0.37915203239309392</v>
       </c>
       <c r="F625">
-        <v>0.29012041362325108</v>
+        <v>0.31174397414939148</v>
       </c>
       <c r="G625">
-        <v>0.30736892412960948</v>
+        <v>0.30910399345751438</v>
       </c>
       <c r="H625">
-        <v>2.0499999999999998</v>
+        <v>2.1</v>
       </c>
       <c r="I625">
-        <v>3.85</v>
+        <v>3.65</v>
       </c>
       <c r="J625">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K625" t="s">
         <v>43</v>
@@ -61629,13 +61629,13 @@
         <v>76</v>
       </c>
       <c r="E626">
-        <v>0.39100285454052047</v>
+        <v>0.38926265747030941</v>
       </c>
       <c r="F626">
-        <v>0.294772855670483</v>
+        <v>0.29627947570253899</v>
       </c>
       <c r="G626">
-        <v>0.31422428978899652</v>
+        <v>0.31445786682715149</v>
       </c>
       <c r="H626">
         <v>2.15</v>
@@ -61644,7 +61644,7 @@
         <v>3.2</v>
       </c>
       <c r="J626">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="K626" t="s">
         <v>43</v>
@@ -61653,7 +61653,7 @@
         <v>43</v>
       </c>
       <c r="M626" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="Q626">
         <f t="shared" si="108"/>
@@ -61682,22 +61682,22 @@
         <v>76</v>
       </c>
       <c r="E627">
-        <v>0.60909867902250758</v>
+        <v>0.61551417278779119</v>
       </c>
       <c r="F627">
-        <v>0.1528820393491486</v>
+        <v>0.14945862702606941</v>
       </c>
       <c r="G627">
-        <v>0.23801928162834379</v>
+        <v>0.23502720018613951</v>
       </c>
       <c r="H627">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="I627">
         <v>6</v>
       </c>
       <c r="J627">
-        <v>4.5999999999999996</v>
+        <v>4.7</v>
       </c>
       <c r="K627" t="s">
         <v>30</v>
@@ -61735,13 +61735,13 @@
         <v>76</v>
       </c>
       <c r="E628">
-        <v>0.59921937494538235</v>
+        <v>0.60010344310579489</v>
       </c>
       <c r="F628">
-        <v>0.15717062480845531</v>
+        <v>0.15670633530816991</v>
       </c>
       <c r="G628">
-        <v>0.24361000024616239</v>
+        <v>0.24319022158603509</v>
       </c>
       <c r="H628">
         <v>1.47</v>
@@ -61841,22 +61841,22 @@
         <v>162</v>
       </c>
       <c r="E630">
-        <v>0.44350613162802899</v>
+        <v>0.43750476822473272</v>
       </c>
       <c r="F630">
-        <v>0.26229349397203511</v>
+        <v>0.26738532055600189</v>
       </c>
       <c r="G630">
-        <v>0.29420037439993602</v>
+        <v>0.29510991121926528</v>
       </c>
       <c r="H630">
-        <v>2.0499999999999998</v>
+        <v>2.1</v>
       </c>
       <c r="I630">
         <v>3.1</v>
       </c>
       <c r="J630">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K630" t="s">
         <v>43</v>
@@ -61894,22 +61894,22 @@
         <v>261</v>
       </c>
       <c r="E631">
-        <v>0.54481003934968575</v>
+        <v>0.5368099061426056</v>
       </c>
       <c r="F631">
-        <v>0.18655492769831419</v>
+        <v>0.19136033748215869</v>
       </c>
       <c r="G631">
-        <v>0.26863503295199997</v>
+        <v>0.27182975637523582</v>
       </c>
       <c r="H631">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="I631">
-        <v>4.55</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="J631">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K631" t="s">
         <v>43</v>
@@ -61947,22 +61947,22 @@
         <v>162</v>
       </c>
       <c r="E632">
-        <v>0.47174167183740962</v>
+        <v>0.46849430000208242</v>
       </c>
       <c r="F632">
-        <v>0.23802662869908389</v>
+        <v>0.24068764623860181</v>
       </c>
       <c r="G632">
-        <v>0.29023169946350652</v>
+        <v>0.29081805375931569</v>
       </c>
       <c r="H632">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="I632">
         <v>3.9</v>
       </c>
       <c r="J632">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="K632" t="s">
         <v>43</v>
@@ -62000,13 +62000,13 @@
         <v>162</v>
       </c>
       <c r="E633">
-        <v>0.36549952086213672</v>
+        <v>0.3663539078196249</v>
       </c>
       <c r="F633">
-        <v>0.31921536407003531</v>
+        <v>0.31819469016546781</v>
       </c>
       <c r="G633">
-        <v>0.31528511506782803</v>
+        <v>0.31545140201490729</v>
       </c>
       <c r="H633">
         <v>2.5499999999999998</v>
@@ -62053,13 +62053,13 @@
         <v>190</v>
       </c>
       <c r="E634">
-        <v>0.52789578454251962</v>
+        <v>0.52817845000755403</v>
       </c>
       <c r="F634">
-        <v>0.19783330114757741</v>
+        <v>0.19763300244926901</v>
       </c>
       <c r="G634">
-        <v>0.27427091430990291</v>
+        <v>0.27418854754317712</v>
       </c>
       <c r="H634">
         <v>1.0009999999999999</v>
@@ -62097,13 +62097,13 @@
         <v>169</v>
       </c>
       <c r="E635">
-        <v>0.49389911346497473</v>
+        <v>0.49423753399223752</v>
       </c>
       <c r="F635">
-        <v>0.2243134633794007</v>
+        <v>0.22408081734063429</v>
       </c>
       <c r="G635">
-        <v>0.28178742315562472</v>
+        <v>0.28168164866712819</v>
       </c>
       <c r="H635">
         <v>1.75</v>
@@ -62150,13 +62150,13 @@
         <v>162</v>
       </c>
       <c r="E636">
-        <v>0.33282387892559429</v>
+        <v>0.33358513091509162</v>
       </c>
       <c r="F636">
-        <v>0.37703151997162021</v>
+        <v>0.3760784663957093</v>
       </c>
       <c r="G636">
-        <v>0.29014460110278562</v>
+        <v>0.29033640268919908</v>
       </c>
       <c r="H636">
         <v>2.75</v>
@@ -62203,19 +62203,19 @@
         <v>169</v>
       </c>
       <c r="E637">
-        <v>0.36243127311268131</v>
+        <v>0.35974648918389213</v>
       </c>
       <c r="F637">
-        <v>0.32400278115921771</v>
+        <v>0.32655265813047513</v>
       </c>
       <c r="G637">
-        <v>0.31356594572810098</v>
+        <v>0.31370085268563291</v>
       </c>
       <c r="H637">
         <v>2.25</v>
       </c>
       <c r="I637">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="J637">
         <v>3</v>
@@ -62309,13 +62309,13 @@
         <v>162</v>
       </c>
       <c r="E639">
-        <v>0.53993670836445806</v>
+        <v>0.5409561537273947</v>
       </c>
       <c r="F639">
-        <v>0.18941228303203361</v>
+        <v>0.18880047149612461</v>
       </c>
       <c r="G639">
-        <v>0.27065100860350821</v>
+        <v>0.27024337477648058</v>
       </c>
       <c r="H639">
         <v>1.86</v>
@@ -62362,13 +62362,13 @@
         <v>162</v>
       </c>
       <c r="E640">
-        <v>0.43250032866045668</v>
+        <v>0.43192544087491919</v>
       </c>
       <c r="F640">
-        <v>0.28162730351016252</v>
+        <v>0.28217625404414542</v>
       </c>
       <c r="G640">
-        <v>0.28587236782938069</v>
+        <v>0.28589830508093539</v>
       </c>
       <c r="H640">
         <v>2</v>
@@ -62377,7 +62377,7 @@
         <v>3.5</v>
       </c>
       <c r="J640">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K640" t="s">
         <v>43</v>
@@ -62415,13 +62415,13 @@
         <v>169</v>
       </c>
       <c r="E641">
-        <v>0.45972549232790982</v>
+        <v>0.46301032977966611</v>
       </c>
       <c r="F641">
-        <v>0.247115251226664</v>
+        <v>0.2444450914200029</v>
       </c>
       <c r="G641">
-        <v>0.29315925644542629</v>
+        <v>0.29254457880033091</v>
       </c>
       <c r="H641">
         <v>2.0499999999999998</v>
@@ -62468,13 +62468,13 @@
         <v>169</v>
       </c>
       <c r="E642">
-        <v>0.58856176062005194</v>
+        <v>0.58841837279411147</v>
       </c>
       <c r="F642">
-        <v>0.16176511200910421</v>
+        <v>0.16183962807555841</v>
       </c>
       <c r="G642">
-        <v>0.24967312737084391</v>
+        <v>0.2497419991303301</v>
       </c>
       <c r="H642">
         <v>1.66</v>
@@ -62483,7 +62483,7 @@
         <v>5</v>
       </c>
       <c r="J642">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K642" t="s">
         <v>43</v>
@@ -62521,13 +62521,13 @@
         <v>63</v>
       </c>
       <c r="E643">
-        <v>0.31144950748016947</v>
+        <v>0.31105541477660043</v>
       </c>
       <c r="F643">
-        <v>0.3939505688350417</v>
+        <v>0.39438802901550862</v>
       </c>
       <c r="G643">
-        <v>0.29459992368478882</v>
+        <v>0.2945565562078909</v>
       </c>
       <c r="H643">
         <v>2.7</v>
@@ -62574,13 +62574,13 @@
         <v>162</v>
       </c>
       <c r="E644">
-        <v>0.56808285842176653</v>
+        <v>0.56741295622628019</v>
       </c>
       <c r="F644">
-        <v>0.1715942412451546</v>
+        <v>0.17198563807999651</v>
       </c>
       <c r="G644">
-        <v>0.26032290033307898</v>
+        <v>0.2606014056937232</v>
       </c>
       <c r="H644">
         <v>1.8</v>
@@ -62627,13 +62627,13 @@
         <v>261</v>
       </c>
       <c r="E645">
-        <v>0.46577751964035669</v>
+        <v>0.4654263184752182</v>
       </c>
       <c r="F645">
-        <v>0.23567191255334269</v>
+        <v>0.23588883994313509</v>
       </c>
       <c r="G645">
-        <v>0.29855056780630063</v>
+        <v>0.29868484158164671</v>
       </c>
       <c r="H645">
         <v>2</v>
@@ -62680,22 +62680,22 @@
         <v>71</v>
       </c>
       <c r="E646">
-        <v>0.34128415074590418</v>
+        <v>0.34060733008589611</v>
       </c>
       <c r="F646">
-        <v>0.34030212434366541</v>
+        <v>0.3408029567695714</v>
       </c>
       <c r="G646">
-        <v>0.31841372491043041</v>
+        <v>0.31858971314453249</v>
       </c>
       <c r="H646">
-        <v>2.5499999999999998</v>
+        <v>2.6</v>
       </c>
       <c r="I646">
         <v>3</v>
       </c>
       <c r="J646">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="K646" t="s">
         <v>43</v>
@@ -62704,7 +62704,7 @@
         <v>43</v>
       </c>
       <c r="M646" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="Q646">
         <f t="shared" si="120"/>
@@ -62733,13 +62733,13 @@
         <v>169</v>
       </c>
       <c r="E647">
-        <v>0.30805331209132059</v>
+        <v>0.3083926096661942</v>
       </c>
       <c r="F647">
-        <v>0.38184973416539331</v>
+        <v>0.38144981191792388</v>
       </c>
       <c r="G647">
-        <v>0.310096953743286</v>
+        <v>0.31015757841588182</v>
       </c>
       <c r="H647">
         <v>2.75</v>
@@ -62786,13 +62786,13 @@
         <v>190</v>
       </c>
       <c r="E648">
-        <v>0.47405620452468861</v>
+        <v>0.46916820074030791</v>
       </c>
       <c r="F648">
-        <v>0.2294693093222625</v>
+        <v>0.23269430555523291</v>
       </c>
       <c r="G648">
-        <v>0.29647448615304889</v>
+        <v>0.2981374937044593</v>
       </c>
       <c r="H648">
         <v>1.0009999999999999</v>
@@ -62830,16 +62830,16 @@
         <v>261</v>
       </c>
       <c r="E649">
-        <v>0.81241079334922617</v>
+        <v>0.81229945817715987</v>
       </c>
       <c r="F649">
-        <v>6.0855115232264591E-2</v>
+        <v>6.0898722535343203E-2</v>
       </c>
       <c r="G649">
-        <v>0.1267340914185093</v>
+        <v>0.12680181928749701</v>
       </c>
       <c r="H649">
-        <v>1.1499999999999999</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="I649">
         <v>12</v>
@@ -62848,7 +62848,7 @@
         <v>7.25</v>
       </c>
       <c r="K649" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="L649" t="s">
         <v>43</v>
@@ -62936,22 +62936,22 @@
         <v>162</v>
       </c>
       <c r="E651">
-        <v>0.36382713835833619</v>
+        <v>0.36165442554338839</v>
       </c>
       <c r="F651">
-        <v>0.31479413328330769</v>
+        <v>0.31679268025788587</v>
       </c>
       <c r="G651">
-        <v>0.3213787283583559</v>
+        <v>0.32155289419872568</v>
       </c>
       <c r="H651">
-        <v>2.5</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="I651">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="J651">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="K651" t="s">
         <v>43</v>
@@ -62989,13 +62989,13 @@
         <v>169</v>
       </c>
       <c r="E652">
-        <v>0.64388896849058574</v>
+        <v>0.64319279187625</v>
       </c>
       <c r="F652">
-        <v>0.13435225364381939</v>
+        <v>0.1346780768088196</v>
       </c>
       <c r="G652">
-        <v>0.22175877786559481</v>
+        <v>0.22212913131493039</v>
       </c>
       <c r="H652">
         <v>1.57</v>
@@ -63042,19 +63042,19 @@
         <v>261</v>
       </c>
       <c r="E653">
-        <v>0.24893103177741921</v>
+        <v>0.25031548629790717</v>
       </c>
       <c r="F653">
-        <v>0.492500981518113</v>
+        <v>0.49003864396069208</v>
       </c>
       <c r="G653">
-        <v>0.25856798670446779</v>
+        <v>0.25964586974140069</v>
       </c>
       <c r="H653">
-        <v>4.05</v>
+        <v>4</v>
       </c>
       <c r="I653">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="J653">
         <v>3.05</v>
@@ -63095,13 +63095,13 @@
         <v>79</v>
       </c>
       <c r="E654">
-        <v>0.25227333757734299</v>
+        <v>0.25228382114437309</v>
       </c>
       <c r="F654">
-        <v>0.50652839173389652</v>
+        <v>0.50646835562512527</v>
       </c>
       <c r="G654">
-        <v>0.2411982706887606</v>
+        <v>0.24124782323050159</v>
       </c>
       <c r="H654">
         <v>3.9</v>
@@ -63148,13 +63148,13 @@
         <v>174</v>
       </c>
       <c r="E655">
-        <v>0.6256707339071651</v>
+        <v>0.62581784095383219</v>
       </c>
       <c r="F655">
-        <v>0.1439265557243872</v>
+        <v>0.14385438063580039</v>
       </c>
       <c r="G655">
-        <v>0.2304027103684477</v>
+        <v>0.23032777841036739</v>
       </c>
       <c r="H655">
         <v>1.52</v>
@@ -63163,7 +63163,7 @@
         <v>7.25</v>
       </c>
       <c r="J655">
-        <v>4</v>
+        <v>4.05</v>
       </c>
       <c r="K655" t="s">
         <v>30</v>
@@ -63201,16 +63201,16 @@
         <v>53</v>
       </c>
       <c r="E656">
-        <v>0.1095315441568209</v>
+        <v>0.1094683525075604</v>
       </c>
       <c r="F656">
-        <v>0.74582300464253815</v>
+        <v>0.74596261448033208</v>
       </c>
       <c r="G656">
-        <v>0.14464545120064079</v>
+        <v>0.14456903301210761</v>
       </c>
       <c r="H656">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="I656">
         <v>1.24</v>
@@ -63219,7 +63219,7 @@
         <v>5.75</v>
       </c>
       <c r="K656" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="L656" t="s">
         <v>30</v>
@@ -63263,10 +63263,10 @@
         <v>0.30844738707804348</v>
       </c>
       <c r="H657">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="I657">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="J657">
         <v>3.1</v>
@@ -63307,13 +63307,13 @@
         <v>50</v>
       </c>
       <c r="E658">
-        <v>0.25126838847015892</v>
+        <v>0.25322604674977239</v>
       </c>
       <c r="F658">
-        <v>0.4854297781761161</v>
+        <v>0.48052400840165471</v>
       </c>
       <c r="G658">
-        <v>0.26330183335372498</v>
+        <v>0.26624994484857289</v>
       </c>
       <c r="H658">
         <v>3.7</v>
@@ -63322,13 +63322,13 @@
         <v>1.83</v>
       </c>
       <c r="J658">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="K658" t="s">
         <v>30</v>
       </c>
       <c r="L658" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="M658" t="s">
         <v>43</v>
@@ -63360,13 +63360,13 @@
         <v>66</v>
       </c>
       <c r="E659">
-        <v>0.75350993351186346</v>
+        <v>0.75500303588953999</v>
       </c>
       <c r="F659">
-        <v>8.5502579535071441E-2</v>
+        <v>8.492496989947064E-2</v>
       </c>
       <c r="G659">
-        <v>0.16098748695306511</v>
+        <v>0.1600719942109893</v>
       </c>
       <c r="H659">
         <v>1.21</v>
@@ -63413,22 +63413,22 @@
         <v>89</v>
       </c>
       <c r="E660">
-        <v>0.45203582671460729</v>
+        <v>0.44187001304285478</v>
       </c>
       <c r="F660">
-        <v>0.28495052693114031</v>
+        <v>0.29497978802709662</v>
       </c>
       <c r="G660">
-        <v>0.26301364635425251</v>
+        <v>0.26315019893004848</v>
       </c>
       <c r="H660">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="I660">
         <v>4.6500000000000004</v>
       </c>
       <c r="J660">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="K660" t="s">
         <v>43</v>
@@ -63445,7 +63445,7 @@
       </c>
       <c r="R660">
         <f t="shared" si="121"/>
-        <v>2.4772701776026584E-2</v>
+        <v>3.6869741134782669E-2</v>
       </c>
       <c r="S660">
         <f t="shared" si="122"/>
@@ -63466,22 +63466,22 @@
         <v>89</v>
       </c>
       <c r="E661">
-        <v>0.12658298708172519</v>
+        <v>0.1255531243530211</v>
       </c>
       <c r="F661">
-        <v>0.71524262098224201</v>
+        <v>0.71720097303866348</v>
       </c>
       <c r="G661">
-        <v>0.15817439193603289</v>
+        <v>0.15724590260831539</v>
       </c>
       <c r="H661">
-        <v>4.9000000000000004</v>
+        <v>5.25</v>
       </c>
       <c r="I661">
-        <v>1.51</v>
+        <v>1.46</v>
       </c>
       <c r="J661">
-        <v>4.45</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="K661" t="s">
         <v>43</v>
@@ -63498,7 +63498,7 @@
       </c>
       <c r="R661">
         <f t="shared" si="121"/>
-        <v>0.10847448086821321</v>
+        <v>4.1463026873000519E-2</v>
       </c>
       <c r="S661">
         <f t="shared" si="122"/>
@@ -63519,22 +63519,22 @@
         <v>89</v>
       </c>
       <c r="E662">
-        <v>7.9999128126725175E-2</v>
+        <v>8.0689409120163244E-2</v>
       </c>
       <c r="F662">
-        <v>0.80726777415292061</v>
+        <v>0.80579365740628883</v>
       </c>
       <c r="G662">
-        <v>0.1127330977203542</v>
+        <v>0.1135169334735479</v>
       </c>
       <c r="H662">
-        <v>7.75</v>
+        <v>7.5</v>
       </c>
       <c r="I662">
         <v>1.27</v>
       </c>
       <c r="J662">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="K662" t="s">
         <v>43</v>
@@ -63551,7 +63551,7 @@
       </c>
       <c r="R662">
         <f t="shared" si="121"/>
-        <v>9.1376743734279064E-2</v>
+        <v>6.449515917340809E-2</v>
       </c>
       <c r="S662">
         <f t="shared" si="122"/>
@@ -63572,13 +63572,13 @@
         <v>179</v>
       </c>
       <c r="E663">
-        <v>0.39247214705468259</v>
+        <v>0.38876858802724351</v>
       </c>
       <c r="F663">
-        <v>0.28819389866521611</v>
+        <v>0.29182643377955159</v>
       </c>
       <c r="G663">
-        <v>0.31933395428010131</v>
+        <v>0.31940497819320501</v>
       </c>
       <c r="H663">
         <v>2.25</v>
@@ -63596,7 +63596,7 @@
         <v>43</v>
       </c>
       <c r="M663" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="Q663">
         <f t="shared" si="120"/>
@@ -63625,22 +63625,22 @@
         <v>79</v>
       </c>
       <c r="E664">
-        <v>0.47076467133347311</v>
+        <v>0.48447948717389461</v>
       </c>
       <c r="F664">
-        <v>0.24176345095874691</v>
+        <v>0.23193616767472469</v>
       </c>
       <c r="G664">
-        <v>0.2874718777077801</v>
+        <v>0.28358434515138081</v>
       </c>
       <c r="H664">
-        <v>2.1</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="I664">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="J664">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K664" t="s">
         <v>43</v>
@@ -63678,22 +63678,22 @@
         <v>76</v>
       </c>
       <c r="E665">
-        <v>0.53814487513703024</v>
+        <v>0.53876503095743211</v>
       </c>
       <c r="F665">
-        <v>0.1890318097610714</v>
+        <v>0.18887305837017859</v>
       </c>
       <c r="G665">
-        <v>0.27282331510189828</v>
+        <v>0.27236191067238941</v>
       </c>
       <c r="H665">
         <v>1.72</v>
       </c>
       <c r="I665">
-        <v>4.95</v>
+        <v>5</v>
       </c>
       <c r="J665">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="K665" t="s">
         <v>30</v>
@@ -63731,22 +63731,22 @@
         <v>71</v>
       </c>
       <c r="E666">
-        <v>0.74134793176121661</v>
+        <v>0.73889393141383597</v>
       </c>
       <c r="F666">
-        <v>9.0302278662840879E-2</v>
+        <v>9.1356641358501522E-2</v>
       </c>
       <c r="G666">
-        <v>0.1683497895759426</v>
+        <v>0.16974942722766251</v>
       </c>
       <c r="H666">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="I666">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="J666">
-        <v>5.94</v>
+        <v>5.96</v>
       </c>
       <c r="K666" t="s">
         <v>30</v>
@@ -63784,13 +63784,13 @@
         <v>174</v>
       </c>
       <c r="E667">
-        <v>0.40136464722868898</v>
+        <v>0.39649667477781347</v>
       </c>
       <c r="F667">
-        <v>0.28943363176110931</v>
+        <v>0.29414848933458232</v>
       </c>
       <c r="G667">
-        <v>0.30920172101020182</v>
+        <v>0.30935483588760421</v>
       </c>
       <c r="H667">
         <v>2.0499999999999998</v>
@@ -63837,13 +63837,13 @@
         <v>53</v>
       </c>
       <c r="E668">
-        <v>0.1281017921059244</v>
+        <v>0.1276859388826449</v>
       </c>
       <c r="F668">
-        <v>0.7087336899762382</v>
+        <v>0.70948225049668856</v>
       </c>
       <c r="G668">
-        <v>0.1631645179178374</v>
+        <v>0.16283181062066651</v>
       </c>
       <c r="H668">
         <v>7.75</v>
@@ -63852,7 +63852,7 @@
         <v>1.31</v>
       </c>
       <c r="J668">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="K668" t="s">
         <v>43</v>
@@ -63890,13 +63890,13 @@
         <v>317</v>
       </c>
       <c r="E669">
-        <v>0.45279651435507412</v>
+        <v>0.44742550881042592</v>
       </c>
       <c r="F669">
-        <v>0.24470858971896281</v>
+        <v>0.2495415201449446</v>
       </c>
       <c r="G669">
-        <v>0.30249489592596313</v>
+        <v>0.30303297104462962</v>
       </c>
       <c r="H669">
         <v>2.1</v>
@@ -63943,13 +63943,13 @@
         <v>317</v>
       </c>
       <c r="E670">
-        <v>0.54118635932555426</v>
+        <v>0.5315024386474374</v>
       </c>
       <c r="F670">
-        <v>0.19192371351322871</v>
+        <v>0.1995356519605421</v>
       </c>
       <c r="G670">
-        <v>0.26688992716121712</v>
+        <v>0.26896190939202042</v>
       </c>
       <c r="H670">
         <v>1.58</v>
@@ -63996,13 +63996,13 @@
         <v>317</v>
       </c>
       <c r="E671">
-        <v>0.39105660316530372</v>
+        <v>0.3822049276997983</v>
       </c>
       <c r="F671">
-        <v>0.29371210489992899</v>
+        <v>0.30171756015404888</v>
       </c>
       <c r="G671">
-        <v>0.31523129193476718</v>
+        <v>0.31607751214615282</v>
       </c>
       <c r="H671">
         <v>2.2000000000000002</v>
@@ -64049,13 +64049,13 @@
         <v>317</v>
       </c>
       <c r="E672">
-        <v>0.28401469227293252</v>
+        <v>0.28183662962815198</v>
       </c>
       <c r="F672">
-        <v>0.44787655385252162</v>
+        <v>0.45078441495799088</v>
       </c>
       <c r="G672">
-        <v>0.26810875387454591</v>
+        <v>0.26737895541385709</v>
       </c>
       <c r="H672">
         <v>3.45</v>
@@ -64102,13 +64102,13 @@
         <v>66</v>
       </c>
       <c r="E673">
-        <v>0.30603186273676991</v>
+        <v>0.30221809824513102</v>
       </c>
       <c r="F673">
-        <v>0.38682212838256991</v>
+        <v>0.39090652302915052</v>
       </c>
       <c r="G673">
-        <v>0.30714600888066018</v>
+        <v>0.30687537872571852</v>
       </c>
       <c r="H673">
         <v>2.9</v>
@@ -64155,13 +64155,13 @@
         <v>317</v>
       </c>
       <c r="E674">
-        <v>0.32329287031722498</v>
+        <v>0.32007711293542079</v>
       </c>
       <c r="F674">
-        <v>0.37006546453209888</v>
+        <v>0.37410377755694962</v>
       </c>
       <c r="G674">
-        <v>0.30664166515067598</v>
+        <v>0.30581910950762958</v>
       </c>
       <c r="H674">
         <v>2.9</v>
@@ -64208,25 +64208,25 @@
         <v>317</v>
       </c>
       <c r="E675">
-        <v>0.7382357405618255</v>
+        <v>0.73695389047113369</v>
       </c>
       <c r="F675">
-        <v>9.2002623618637203E-2</v>
+        <v>9.2617864742214603E-2</v>
       </c>
       <c r="G675">
-        <v>0.1697616358195374</v>
+        <v>0.17042824478665161</v>
       </c>
       <c r="H675">
         <v>1.22</v>
       </c>
       <c r="I675">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="J675">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="K675" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="L675" t="s">
         <v>43</v>
@@ -64261,22 +64261,22 @@
         <v>29</v>
       </c>
       <c r="E676">
-        <v>0.40963684864972721</v>
+        <v>0.40207088487087611</v>
       </c>
       <c r="F676">
-        <v>0.28373927716910741</v>
+        <v>0.29058474603355061</v>
       </c>
       <c r="G676">
-        <v>0.30662387418116538</v>
+        <v>0.30734436909557328</v>
       </c>
       <c r="H676">
         <v>2.15</v>
       </c>
       <c r="I676">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="J676">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="K676" t="s">
         <v>43</v>
@@ -64314,13 +64314,13 @@
         <v>317</v>
       </c>
       <c r="E677">
-        <v>0.35769734862044639</v>
+        <v>0.35093795345598089</v>
       </c>
       <c r="F677">
-        <v>0.32627710904264201</v>
+        <v>0.33383790927847562</v>
       </c>
       <c r="G677">
-        <v>0.31602554233691149</v>
+        <v>0.3152241372655436</v>
       </c>
       <c r="H677">
         <v>2.5</v>
@@ -64367,13 +64367,13 @@
         <v>179</v>
       </c>
       <c r="E678">
-        <v>0.50867024911812819</v>
+        <v>0.51232500183392593</v>
       </c>
       <c r="F678">
-        <v>0.20619437023117271</v>
+        <v>0.20405935953250129</v>
       </c>
       <c r="G678">
-        <v>0.28513538065069899</v>
+        <v>0.28361563863357292</v>
       </c>
       <c r="H678">
         <v>1.95</v>
@@ -64382,7 +64382,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="J678">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="K678" t="s">
         <v>43</v>
@@ -64391,7 +64391,7 @@
         <v>43</v>
       </c>
       <c r="M678" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="Q678">
         <f t="shared" si="120"/>
@@ -64420,13 +64420,13 @@
         <v>79</v>
       </c>
       <c r="E679">
-        <v>0.3282482340998566</v>
+        <v>0.32887052339818401</v>
       </c>
       <c r="F679">
-        <v>0.39085963841737059</v>
+        <v>0.39104216261403368</v>
       </c>
       <c r="G679">
-        <v>0.28089212748277281</v>
+        <v>0.28008731398778219</v>
       </c>
       <c r="H679">
         <v>2.4500000000000002</v>
@@ -64473,13 +64473,13 @@
         <v>58</v>
       </c>
       <c r="E680">
-        <v>0.12952374400871849</v>
+        <v>0.1323056692746942</v>
       </c>
       <c r="F680">
-        <v>0.70460018384386547</v>
+        <v>0.69919876040611828</v>
       </c>
       <c r="G680">
-        <v>0.16587607214741601</v>
+        <v>0.16849557031918749</v>
       </c>
       <c r="H680">
         <v>6</v>
@@ -64505,7 +64505,7 @@
       </c>
       <c r="R680">
         <f t="shared" si="121"/>
-        <v>5.969891850417075E-2</v>
+        <v>3.1948635806376968E-2</v>
       </c>
       <c r="S680">
         <f t="shared" si="122"/>
@@ -64526,13 +64526,13 @@
         <v>66</v>
       </c>
       <c r="E681">
-        <v>0.69439901908014767</v>
+        <v>0.69581132118677591</v>
       </c>
       <c r="F681">
-        <v>0.1113117942170426</v>
+        <v>0.1106952943972329</v>
       </c>
       <c r="G681">
-        <v>0.1942891867028097</v>
+        <v>0.1934933844159912</v>
       </c>
       <c r="H681">
         <v>1.38</v>
@@ -64579,13 +64579,13 @@
         <v>71</v>
       </c>
       <c r="E682">
-        <v>0.2993121947456161</v>
+        <v>0.29871882326579391</v>
       </c>
       <c r="F682">
-        <v>0.39904791307935827</v>
+        <v>0.40010023590436189</v>
       </c>
       <c r="G682">
-        <v>0.30163989217502563</v>
+        <v>0.3011809408298442</v>
       </c>
       <c r="H682">
         <v>2.8</v>
@@ -64594,7 +64594,7 @@
         <v>2.5</v>
       </c>
       <c r="J682">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K682" t="s">
         <v>43</v>
@@ -64603,7 +64603,7 @@
         <v>43</v>
       </c>
       <c r="M682" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="Q682">
         <f t="shared" si="120"/>
@@ -64632,13 +64632,13 @@
         <v>42</v>
       </c>
       <c r="E683">
-        <v>0.6044076510935974</v>
+        <v>0.60173882107756627</v>
       </c>
       <c r="F683">
-        <v>0.1556222785373001</v>
+        <v>0.15684086208709361</v>
       </c>
       <c r="G683">
-        <v>0.2399700703691024</v>
+        <v>0.24142031683533999</v>
       </c>
       <c r="H683">
         <v>1.57</v>
@@ -64685,16 +64685,16 @@
         <v>174</v>
       </c>
       <c r="E684">
-        <v>0.77147571962286443</v>
+        <v>0.76832354632351063</v>
       </c>
       <c r="F684">
-        <v>7.7621172359850277E-2</v>
+        <v>7.8948704363740685E-2</v>
       </c>
       <c r="G684">
-        <v>0.1509031080172851</v>
+        <v>0.15272774931274871</v>
       </c>
       <c r="H684">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="I684">
         <v>9</v>
@@ -64713,7 +64713,7 @@
       </c>
       <c r="Q684">
         <f t="shared" si="120"/>
-        <v>2.8801623659792996E-2</v>
+        <v>0</v>
       </c>
       <c r="R684">
         <f t="shared" si="121"/>
@@ -64738,22 +64738,22 @@
         <v>29</v>
       </c>
       <c r="E685">
-        <v>0.79719557624149862</v>
+        <v>0.79010176706492075</v>
       </c>
       <c r="F685">
-        <v>6.7015904395479414E-2</v>
+        <v>6.9913791846294232E-2</v>
       </c>
       <c r="G685">
-        <v>0.1357885193630218</v>
+        <v>0.13998444108878499</v>
       </c>
       <c r="H685">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="I685">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J685">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="K685" t="s">
         <v>43</v>
@@ -64791,19 +64791,19 @@
         <v>42</v>
       </c>
       <c r="E686">
-        <v>0.7253499856542025</v>
+        <v>0.72275334886054843</v>
       </c>
       <c r="F686">
-        <v>9.7615844209133357E-2</v>
+        <v>9.8763294427173784E-2</v>
       </c>
       <c r="G686">
-        <v>0.17703417013666409</v>
+        <v>0.17848335671227769</v>
       </c>
       <c r="H686">
         <v>1.4</v>
       </c>
       <c r="I686">
-        <v>6.75</v>
+        <v>6.8</v>
       </c>
       <c r="J686">
         <v>5.25</v>
@@ -64812,7 +64812,7 @@
         <v>30</v>
       </c>
       <c r="L686" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="M686" t="s">
         <v>43</v>
@@ -64844,13 +64844,13 @@
         <v>42</v>
       </c>
       <c r="E687">
-        <v>0.72059346471368479</v>
+        <v>0.71656856598927698</v>
       </c>
       <c r="F687">
-        <v>9.9547326571932798E-2</v>
+        <v>0.1013396986963828</v>
       </c>
       <c r="G687">
-        <v>0.17985920871438241</v>
+        <v>0.18209173531434009</v>
       </c>
       <c r="H687">
         <v>1.38</v>
